--- a/100runs/run056/NotionalETEOutput056.xlsx
+++ b/100runs/run056/NotionalETEOutput056.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="23">
   <si>
     <t>uniqueid</t>
   </si>
@@ -49,16 +49,40 @@
     <t>tUp</t>
   </si>
   <si>
+    <t>Missile_BRAVER_State_Update</t>
+  </si>
+  <si>
+    <t>Missile_HELLMASKER_State_Update</t>
+  </si>
+  <si>
     <t>Missile_SOMERSAULT_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT_194.MISSILE_SOMERSAULT_194</t>
+    <t>Missile_HIGHWIND_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT_47.MISSILE_SOMERSAULT_47</t>
+    <t>MISSILE_BRAVER_135.MISSILE_BRAVER_135</t>
+  </si>
+  <si>
+    <t>MISSILE_HELLMASKER_129.MISSILE_HELLMASKER_129</t>
+  </si>
+  <si>
+    <t>MISSILE_SOMERSAULT_198.MISSILE_SOMERSAULT_198</t>
+  </si>
+  <si>
+    <t>MISSILE_HIGHWIND_480.MISSILE_HIGHWIND_480</t>
+  </si>
+  <si>
+    <t>MISSILE_BRAVER</t>
+  </si>
+  <si>
+    <t>MISSILE_HELLMASKER</t>
   </si>
   <si>
     <t>MISSILE_SOMERSAULT</t>
+  </si>
+  <si>
+    <t>MISSILE_HIGHWIND</t>
   </si>
 </sst>
 </file>
@@ -416,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K107"/>
+  <dimension ref="A1:K213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,31 +489,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>168.0564373562008</v>
+        <v>1116579.528042637</v>
       </c>
       <c r="G2">
-        <v>-77.16269106747458</v>
+        <v>4841124.778632768</v>
       </c>
       <c r="H2">
-        <v>1348.58158121</v>
+        <v>3985227.585466219</v>
       </c>
       <c r="I2">
-        <v>-1332.243451367642</v>
+        <v>1114860.502249244</v>
       </c>
       <c r="J2">
-        <v>2231.147607686251</v>
+        <v>4843219.284958235</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984361.4227782</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -500,31 +524,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>168.0564373562008</v>
+        <v>1116579.528042637</v>
       </c>
       <c r="G3">
-        <v>-77.16269106747458</v>
+        <v>4841124.778632768</v>
       </c>
       <c r="H3">
-        <v>1348.58158121</v>
+        <v>3985227.585466219</v>
       </c>
       <c r="I3">
-        <v>-1305.941418223292</v>
+        <v>1114890.116222992</v>
       </c>
       <c r="J3">
-        <v>2176.873170335594</v>
+        <v>4843170.633410077</v>
       </c>
       <c r="K3">
-        <v>343.3481929956437</v>
+        <v>3984665.218091701</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -535,31 +559,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>168.0564373562008</v>
+        <v>1116579.528042637</v>
       </c>
       <c r="G4">
-        <v>-77.16269106747458</v>
+        <v>4841124.778632768</v>
       </c>
       <c r="H4">
-        <v>1348.58158121</v>
+        <v>3985227.585466219</v>
       </c>
       <c r="I4">
-        <v>-1278.991721710189</v>
+        <v>1114920.459413599</v>
       </c>
       <c r="J4">
-        <v>2122.598732984938</v>
+        <v>4843121.981861918</v>
       </c>
       <c r="K4">
-        <v>669.5754712369089</v>
+        <v>3984953.864778323</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -570,31 +594,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>168.0564373562008</v>
+        <v>1116579.528042637</v>
       </c>
       <c r="G5">
-        <v>-77.16269106747458</v>
+        <v>4841124.778632768</v>
       </c>
       <c r="H5">
-        <v>1348.58158121</v>
+        <v>3985227.585466219</v>
       </c>
       <c r="I5">
-        <v>-1251.378413713717</v>
+        <v>1114951.54977736</v>
       </c>
       <c r="J5">
-        <v>2068.324295634281</v>
+        <v>4843073.330313761</v>
       </c>
       <c r="K5">
-        <v>978.681834723798</v>
+        <v>3985227.362838066</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -605,31 +629,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>168.0564373562008</v>
+        <v>1116579.528042637</v>
       </c>
       <c r="G6">
-        <v>-77.16269106747458</v>
+        <v>4841124.778632768</v>
       </c>
       <c r="H6">
-        <v>1348.58158121</v>
+        <v>3985227.585466219</v>
       </c>
       <c r="I6">
-        <v>-1223.08515341161</v>
+        <v>1114983.405712725</v>
       </c>
       <c r="J6">
-        <v>2014.049858283625</v>
+        <v>4843024.678765602</v>
       </c>
       <c r="K6">
-        <v>1270.667283456309</v>
+        <v>3985485.712270931</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -640,31 +664,31 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>168.0564373562008</v>
+        <v>1116579.528042637</v>
       </c>
       <c r="G7">
-        <v>-77.16269106747458</v>
+        <v>4841124.778632768</v>
       </c>
       <c r="H7">
-        <v>1348.58158121</v>
+        <v>3985227.585466219</v>
       </c>
       <c r="I7">
-        <v>-1194.095197603885</v>
+        <v>1115016.046071192</v>
       </c>
       <c r="J7">
-        <v>1959.775420932969</v>
+        <v>4842976.027217445</v>
       </c>
       <c r="K7">
-        <v>1545.531817434445</v>
+        <v>3985728.913076917</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -675,31 +699,31 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>168.0564373562008</v>
+        <v>1116579.528042637</v>
       </c>
       <c r="G8">
-        <v>-77.16269106747458</v>
+        <v>4841124.778632768</v>
       </c>
       <c r="H8">
-        <v>1348.58158121</v>
+        <v>3985227.585466219</v>
       </c>
       <c r="I8">
-        <v>-1164.391390804666</v>
+        <v>1115049.490168458</v>
       </c>
       <c r="J8">
-        <v>1905.500983582312</v>
+        <v>4842927.375669286</v>
       </c>
       <c r="K8">
-        <v>1803.275436658203</v>
+        <v>3985956.965256023</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -710,31 +734,31 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>168.0564373562008</v>
+        <v>1116579.528042637</v>
       </c>
       <c r="G9">
-        <v>-77.16269106747458</v>
+        <v>4841124.778632768</v>
       </c>
       <c r="H9">
-        <v>1348.58158121</v>
+        <v>3985227.585466219</v>
       </c>
       <c r="I9">
-        <v>-1133.956155090017</v>
+        <v>1115083.75779585</v>
       </c>
       <c r="J9">
-        <v>1851.226546231655</v>
+        <v>4842878.724121128</v>
       </c>
       <c r="K9">
-        <v>2043.898141127583</v>
+        <v>3986169.868808251</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -745,31 +769,31 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>168.0564373562008</v>
+        <v>1116579.528042637</v>
       </c>
       <c r="G10">
-        <v>-64.42095878537485</v>
+        <v>4841141.291452714</v>
       </c>
       <c r="H10">
-        <v>1348.58158121</v>
+        <v>3985227.585466219</v>
       </c>
       <c r="I10">
-        <v>-1102.771479695798</v>
+        <v>1115118.869232042</v>
       </c>
       <c r="J10">
-        <v>1796.952108880999</v>
+        <v>4842830.07257297</v>
       </c>
       <c r="K10">
-        <v>2267.399930842586</v>
+        <v>3986367.6237336</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -780,31 +804,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>130.4314002572479</v>
+        <v>1116530.847434214</v>
       </c>
       <c r="G11">
-        <v>-51.67922650327514</v>
+        <v>4841157.804272658</v>
       </c>
       <c r="H11">
-        <v>1661.443433369987</v>
+        <v>3985426.83983585</v>
       </c>
       <c r="I11">
-        <v>-1070.818910359372</v>
+        <v>1115154.845255048</v>
       </c>
       <c r="J11">
-        <v>1742.677671530343</v>
+        <v>4842781.421024812</v>
       </c>
       <c r="K11">
-        <v>2473.780805803212</v>
+        <v>3986550.23003207</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -815,31 +839,31 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>108.3285784372235</v>
+        <v>1116502.250018849</v>
       </c>
       <c r="G12">
-        <v>-38.93749422117543</v>
+        <v>4841174.317092604</v>
       </c>
       <c r="H12">
-        <v>1847.799952879036</v>
+        <v>3985545.525928658</v>
       </c>
       <c r="I12">
-        <v>-1038.079538398861</v>
+        <v>1115191.707154523</v>
       </c>
       <c r="J12">
-        <v>1688.403234179686</v>
+        <v>4842732.769476654</v>
       </c>
       <c r="K12">
-        <v>2663.040766009462</v>
+        <v>3986717.687703661</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -850,31 +874,31 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>94.37565575937295</v>
+        <v>1116484.197232258</v>
       </c>
       <c r="G13">
-        <v>-26.19576193907571</v>
+        <v>4841190.829912549</v>
       </c>
       <c r="H13">
-        <v>1980.97636201651</v>
+        <v>3985630.342857501</v>
       </c>
       <c r="I13">
-        <v>-1004.533989523492</v>
+        <v>1115229.476744361</v>
       </c>
       <c r="J13">
-        <v>1634.12879682903</v>
+        <v>4842684.117928496</v>
       </c>
       <c r="K13">
-        <v>2835.179811461335</v>
+        <v>3986869.996748373</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -885,31 +909,31 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>84.64494412207823</v>
+        <v>1116471.60729217</v>
       </c>
       <c r="G14">
-        <v>-13.45402965697598</v>
+        <v>4841207.342732493</v>
       </c>
       <c r="H14">
-        <v>2084.680760462548</v>
+        <v>3985696.389754551</v>
       </c>
       <c r="I14">
-        <v>-970.1624123684064</v>
+        <v>1115268.1763756</v>
       </c>
       <c r="J14">
-        <v>1579.854359478373</v>
+        <v>4842635.466380338</v>
       </c>
       <c r="K14">
-        <v>2990.19794215883</v>
+        <v>3987007.157166206</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -920,31 +944,31 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>77.38554183909089</v>
+        <v>1116462.214819839</v>
       </c>
       <c r="G15">
-        <v>-0.712297374876276</v>
+        <v>4841223.855552439</v>
       </c>
       <c r="H15">
-        <v>2169.622706836225</v>
+        <v>3985750.487286299</v>
       </c>
       <c r="I15">
-        <v>-934.9444667471481</v>
+        <v>1115307.828949656</v>
       </c>
       <c r="J15">
-        <v>1525.579922127717</v>
+        <v>4842586.81483218</v>
       </c>
       <c r="K15">
-        <v>3128.095158101948</v>
+        <v>3987129.168957161</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -955,31 +979,31 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>71.70970299926931</v>
+        <v>1116454.871218095</v>
       </c>
       <c r="G16">
-        <v>12.02943490722344</v>
+        <v>4841240.368372383</v>
       </c>
       <c r="H16">
-        <v>2241.562334953166</v>
+        <v>3985796.303946761</v>
       </c>
       <c r="I16">
-        <v>-898.8593116148821</v>
+        <v>1115348.457931869</v>
       </c>
       <c r="J16">
-        <v>1471.30548477706</v>
+        <v>4842538.163284021</v>
       </c>
       <c r="K16">
-        <v>3248.871459290689</v>
+        <v>3987236.032121237</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -990,31 +1014,31 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>67.11753610647654</v>
+        <v>1116448.92970958</v>
       </c>
       <c r="G17">
-        <v>24.77116718932317</v>
+        <v>4841256.881192328</v>
       </c>
       <c r="H17">
-        <v>2303.956860185725</v>
+        <v>3985836.041555254</v>
       </c>
       <c r="I17">
-        <v>-861.8855927352179</v>
+        <v>1115390.08736539</v>
       </c>
       <c r="J17">
-        <v>1417.031047426404</v>
+        <v>4842489.511735863</v>
       </c>
       <c r="K17">
-        <v>3352.526845725052</v>
+        <v>3987327.746658433</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1025,31 +1049,31 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>63.30440130472834</v>
+        <v>1116443.996140434</v>
       </c>
       <c r="G18">
-        <v>37.51289947142288</v>
+        <v>4841273.394012273</v>
       </c>
       <c r="H18">
-        <v>2359.045051797038</v>
+        <v>3985871.125931371</v>
       </c>
       <c r="I18">
-        <v>-824.0014300433398</v>
+        <v>1115432.741885414</v>
       </c>
       <c r="J18">
-        <v>1362.756610075747</v>
+        <v>4842440.860187706</v>
       </c>
       <c r="K18">
-        <v>3439.06131740504</v>
+        <v>3987404.312568751</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1060,31 +1084,31 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>60.07305646299272</v>
+        <v>1116439.815311787</v>
       </c>
       <c r="G19">
-        <v>50.2546317535226</v>
+        <v>4841289.906832218</v>
       </c>
       <c r="H19">
-        <v>2408.360068624194</v>
+        <v>3985902.533507985</v>
       </c>
       <c r="I19">
-        <v>-785.1844046979646</v>
+        <v>1115476.446733751</v>
       </c>
       <c r="J19">
-        <v>1308.482172725091</v>
+        <v>4842392.208639548</v>
       </c>
       <c r="K19">
-        <v>3508.47487433065</v>
+        <v>3987465.72985219</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1095,31 +1119,31 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>57.28956813302386</v>
+        <v>1116436.213935792</v>
       </c>
       <c r="G20">
-        <v>62.99636403562231</v>
+        <v>4841306.419652163</v>
       </c>
       <c r="H20">
-        <v>2452.997991187944</v>
+        <v>3985930.96235305</v>
       </c>
       <c r="I20">
-        <v>-745.411545814468</v>
+        <v>1115521.227773772</v>
       </c>
       <c r="J20">
-        <v>1254.207735374434</v>
+        <v>4842343.557091389</v>
       </c>
       <c r="K20">
-        <v>3560.767516501882</v>
+        <v>3987511.99850875</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1130,31 +1154,31 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>54.85943899329138</v>
+        <v>1116433.069748458</v>
       </c>
       <c r="G21">
-        <v>75.73809631772203</v>
+        <v>4841322.932472109</v>
       </c>
       <c r="H21">
-        <v>2493.769636595999</v>
+        <v>3985956.928856952</v>
       </c>
       <c r="I21">
-        <v>-704.6593168713248</v>
+        <v>1115567.111505705</v>
       </c>
       <c r="J21">
-        <v>1199.933298023778</v>
+        <v>4842294.905543231</v>
       </c>
       <c r="K21">
-        <v>3595.939243918738</v>
+        <v>3987543.118538431</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1165,31 +1189,31 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>52.71386464561194</v>
+        <v>1116430.293728215</v>
       </c>
       <c r="G22">
-        <v>88.47982859982176</v>
+        <v>4841339.445292053</v>
       </c>
       <c r="H22">
-        <v>2531.291693763316</v>
+        <v>3985980.825774381</v>
       </c>
       <c r="I22">
-        <v>-662.9036017818195</v>
+        <v>1115614.125082324</v>
       </c>
       <c r="J22">
-        <v>1145.658860673121</v>
+        <v>4842246.253995073</v>
       </c>
       <c r="K22">
-        <v>3613.990056581216</v>
+        <v>3987559.089941233</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1200,31 +1224,31 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>50.80141355120212</v>
+        <v>1116427.81933111</v>
       </c>
       <c r="G23">
-        <v>101.2215608819215</v>
+        <v>4841355.958111999</v>
       </c>
       <c r="H23">
-        <v>2566.044140723073</v>
+        <v>3986002.958792083</v>
       </c>
       <c r="I23">
-        <v>-620.1196906227887</v>
+        <v>1115662.296325017</v>
       </c>
       <c r="J23">
-        <v>1091.384423322465</v>
+        <v>4842197.602446916</v>
       </c>
       <c r="K23">
-        <v>3614.919954489318</v>
+        <v>3987559.912717157</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1235,31 +1259,31 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>49.08277421138732</v>
+        <v>1116425.595694533</v>
       </c>
       <c r="G24">
-        <v>113.9632931640212</v>
+        <v>4841372.470931944</v>
       </c>
       <c r="H24">
-        <v>2598.407887880776</v>
+        <v>3986023.570502953</v>
       </c>
       <c r="I24">
-        <v>-576.2822650119434</v>
+        <v>1115711.653740243</v>
       </c>
       <c r="J24">
-        <v>1037.109985971808</v>
+        <v>4842148.950898756</v>
       </c>
       <c r="K24">
-        <v>3598.728937643042</v>
+        <v>3987545.586866201</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1270,31 +1294,31 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>47.52731892938424</v>
+        <v>1116423.583191281</v>
       </c>
       <c r="G25">
-        <v>126.7050254461209</v>
+        <v>4841388.983751887</v>
       </c>
       <c r="H25">
-        <v>2628.690295245714</v>
+        <v>3986042.856657365</v>
       </c>
       <c r="I25">
-        <v>-531.3653831251228</v>
+        <v>1115762.226536412</v>
       </c>
       <c r="J25">
-        <v>982.8355486211518</v>
+        <v>4842100.299350599</v>
       </c>
       <c r="K25">
-        <v>3565.41700604239</v>
+        <v>3987516.112388366</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1305,31 +1329,31 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>46.11078645818876</v>
+        <v>1116421.750431293</v>
       </c>
       <c r="G26">
-        <v>139.4467577282206</v>
+        <v>4841405.496571833</v>
       </c>
       <c r="H26">
-        <v>2657.142968644196</v>
+        <v>3986060.977497165</v>
       </c>
       <c r="I26">
-        <v>-485.342464344613</v>
+        <v>1115814.04464116</v>
       </c>
       <c r="J26">
-        <v>928.5611112704952</v>
+        <v>4842051.647802441</v>
       </c>
       <c r="K26">
-        <v>3514.98415968736</v>
+        <v>3987471.489283653</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1340,31 +1364,31 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>44.81367745711753</v>
+        <v>1116420.072185629</v>
       </c>
       <c r="G27">
-        <v>152.1884900103203</v>
+        <v>4841422.009391777</v>
       </c>
       <c r="H27">
-        <v>2683.974479126117</v>
+        <v>3986078.065856357</v>
       </c>
       <c r="I27">
-        <v>-438.1862735294422</v>
+        <v>1115867.138719066</v>
       </c>
       <c r="J27">
-        <v>874.2866739198387</v>
+        <v>4842002.996254282</v>
       </c>
       <c r="K27">
-        <v>3447.430398577953</v>
+        <v>3987411.717552061</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1375,31 +1399,31 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>43.62011758332231</v>
+        <v>1116418.527915502</v>
       </c>
       <c r="G28">
-        <v>164.9302222924201</v>
+        <v>4841438.522211723</v>
       </c>
       <c r="H28">
-        <v>2709.359650094985</v>
+        <v>3986094.233075865</v>
       </c>
       <c r="I28">
-        <v>-389.8689048983481</v>
+        <v>1115921.540189794</v>
       </c>
       <c r="J28">
-        <v>820.0122365691823</v>
+        <v>4841954.344706125</v>
       </c>
       <c r="K28">
-        <v>3362.755722714169</v>
+        <v>3987336.79719359</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1410,31 +1434,31 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>42.51703537846164</v>
+        <v>1116417.100708593</v>
       </c>
       <c r="G29">
-        <v>177.6719545745198</v>
+        <v>4841455.035031668</v>
       </c>
       <c r="H29">
-        <v>2733.446466900843</v>
+        <v>3986109.573404083</v>
       </c>
       <c r="I29">
-        <v>-340.3617655158768</v>
+        <v>1115977.281246691</v>
       </c>
       <c r="J29">
-        <v>765.7377992185258</v>
+        <v>4841905.693157966</v>
       </c>
       <c r="K29">
-        <v>3260.960132096008</v>
+        <v>3987246.72820824</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1445,31 +1469,31 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>41.49355694858014</v>
+        <v>1116415.776495874</v>
       </c>
       <c r="G30">
-        <v>190.4136868566195</v>
+        <v>4841471.547851613</v>
       </c>
       <c r="H30">
-        <v>2756.361303846715</v>
+        <v>3986124.167325839</v>
       </c>
       <c r="I30">
-        <v>-289.6355583718453</v>
+        <v>1116034.394875833</v>
       </c>
       <c r="J30">
-        <v>711.4633618678691</v>
+        <v>4841857.041609809</v>
       </c>
       <c r="K30">
-        <v>3142.04362672347</v>
+        <v>3987141.510596011</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1480,31 +1504,31 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>40.54055300730313</v>
+        <v>1116414.54346555</v>
       </c>
       <c r="G31">
-        <v>203.1554191387192</v>
+        <v>4841488.060671558</v>
       </c>
       <c r="H31">
-        <v>2778.212937539266</v>
+        <v>3986138.0841184</v>
       </c>
       <c r="I31">
-        <v>-237.6602650441471</v>
+        <v>1116092.914875549</v>
       </c>
       <c r="J31">
-        <v>657.1889245172129</v>
+        <v>4841808.39006165</v>
       </c>
       <c r="K31">
-        <v>3006.006206596555</v>
+        <v>3987021.144356903</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1515,31 +1539,31 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>39.65029496768195</v>
+        <v>1116413.391618101</v>
       </c>
       <c r="G32">
-        <v>215.8971514208189</v>
+        <v>4841504.573491503</v>
       </c>
       <c r="H32">
-        <v>2799.09566978765</v>
+        <v>3986151.383840375</v>
       </c>
       <c r="I32">
-        <v>-184.4051279346475</v>
+        <v>1116152.875876421</v>
       </c>
       <c r="J32">
-        <v>602.9144871665562</v>
+        <v>4841759.738513492</v>
       </c>
       <c r="K32">
-        <v>2852.847871715262</v>
+        <v>3986885.629490917</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1550,31 +1574,31 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>38.81619037326677</v>
+        <v>1116412.312423971</v>
       </c>
       <c r="G33">
-        <v>228.6388837029186</v>
+        <v>4841521.086311447</v>
       </c>
       <c r="H33">
-        <v>2819.091787091249</v>
+        <v>3986164.118898104</v>
       </c>
       <c r="I33">
-        <v>-129.8386320676538</v>
+        <v>1116214.313361777</v>
       </c>
       <c r="J33">
-        <v>548.6400498158998</v>
+        <v>4841711.086965335</v>
       </c>
       <c r="K33">
-        <v>2682.568622079594</v>
+        <v>3986734.965998051</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1585,31 +1609,31 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>38.03257691808572</v>
+        <v>1116411.298557071</v>
       </c>
       <c r="G34">
-        <v>241.3806159850184</v>
+        <v>4841537.599131392</v>
       </c>
       <c r="H34">
-        <v>2838.273518963819</v>
+        <v>3986176.335292868</v>
       </c>
       <c r="I34">
-        <v>-73.92848644019107</v>
+        <v>1116277.263688687</v>
       </c>
       <c r="J34">
-        <v>494.3656124652433</v>
+        <v>4841662.435417176</v>
       </c>
       <c r="K34">
-        <v>2495.168457689547</v>
+        <v>3986569.153878307</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1620,31 +1644,31 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>37.29456032216271</v>
+        <v>1116410.343685004</v>
       </c>
       <c r="G35">
-        <v>254.1223482671181</v>
+        <v>4841554.111951337</v>
       </c>
       <c r="H35">
-        <v>2856.704612855456</v>
+        <v>3986188.073623923</v>
       </c>
       <c r="I35">
-        <v>-16.64160491304313</v>
+        <v>1116341.764109485</v>
       </c>
       <c r="J35">
-        <v>440.0911751145867</v>
+        <v>4841613.783869018</v>
       </c>
       <c r="K35">
-        <v>2290.647378545123</v>
+        <v>3986388.193131683</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1655,31 +1679,31 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>36.59788544322035</v>
+        <v>1116409.442302319</v>
       </c>
       <c r="G36">
-        <v>266.8640805492178</v>
+        <v>4841570.624771282</v>
       </c>
       <c r="H36">
-        <v>2874.441612363804</v>
+        <v>3986199.369902558</v>
       </c>
       <c r="I36">
-        <v>42.05591336874637</v>
+        <v>1116407.852793805</v>
       </c>
       <c r="J36">
-        <v>385.8167377639303</v>
+        <v>4841565.132320859</v>
       </c>
       <c r="K36">
-        <v>2069.005384646323</v>
+        <v>3986192.083758181</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1690,31 +1714,31 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>35.93883286454781</v>
+        <v>1116408.589596701</v>
       </c>
       <c r="G37">
-        <v>279.6058128313175</v>
+        <v>4841587.137591228</v>
       </c>
       <c r="H37">
-        <v>2891.53490338521</v>
+        <v>3986210.256218367</v>
       </c>
       <c r="I37">
-        <v>102.1988040374982</v>
+        <v>1116475.568851176</v>
       </c>
       <c r="J37">
-        <v>331.5423004132738</v>
+        <v>4841516.480772702</v>
       </c>
       <c r="K37">
-        <v>1830.242475993145</v>
+        <v>3985980.8257578</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1725,31 +1749,31 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>35.31413521634223</v>
+        <v>1116407.781340711</v>
       </c>
       <c r="G38">
-        <v>292.3475451134173</v>
+        <v>4841603.650411172</v>
       </c>
       <c r="H38">
-        <v>2908.029576996164</v>
+        <v>3986220.7612888</v>
       </c>
       <c r="I38">
-        <v>163.8226580585237</v>
+        <v>1116544.952354162</v>
       </c>
       <c r="J38">
-        <v>277.2678630626174</v>
+        <v>4841467.829224545</v>
       </c>
       <c r="K38">
-        <v>1574.358652585591</v>
+        <v>3985754.41913054</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1760,31 +1784,31 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>34.72090893091969</v>
+        <v>1116407.013803488</v>
       </c>
       <c r="G39">
-        <v>305.0892773955169</v>
+        <v>4841620.163231118</v>
       </c>
       <c r="H39">
-        <v>2923.966146291648</v>
+        <v>3986230.910915695</v>
       </c>
       <c r="I39">
-        <v>226.9639427919102</v>
+        <v>1116616.044362078</v>
       </c>
       <c r="J39">
-        <v>222.9934257119608</v>
+        <v>4841419.177676385</v>
       </c>
       <c r="K39">
-        <v>1301.353914423659</v>
+        <v>3985512.863876401</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1795,31 +1819,31 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>34.15659817774094</v>
+        <v>1116406.283678206</v>
       </c>
       <c r="G40">
-        <v>317.8310096776166</v>
+        <v>4841636.676051063</v>
       </c>
       <c r="H40">
-        <v>2939.381145873239</v>
+        <v>3986240.728367082</v>
       </c>
       <c r="I40">
-        <v>291.6600235729401</v>
+        <v>1116688.886945285</v>
       </c>
       <c r="J40">
-        <v>168.7189883613043</v>
+        <v>4841370.526128228</v>
       </c>
       <c r="K40">
-        <v>1011.22826150735</v>
+        <v>3985256.159995383</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1830,31 +1854,31 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>33.61892849072907</v>
+        <v>1116405.588022082</v>
       </c>
       <c r="G41">
-        <v>330.5727419597164</v>
+        <v>4841653.188871007</v>
       </c>
       <c r="H41">
-        <v>2954.307636310983</v>
+        <v>3986250.234698462</v>
       </c>
       <c r="I41">
-        <v>357.949185823899</v>
+        <v>1116763.52321009</v>
       </c>
       <c r="J41">
-        <v>114.4445510106479</v>
+        <v>4841321.874580069</v>
       </c>
       <c r="K41">
-        <v>703.9816938366646</v>
+        <v>3984984.307487486</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1865,31 +1889,31 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>33.10586816853824</v>
+        <v>1116404.924206427</v>
       </c>
       <c r="G42">
-        <v>343.3144742418161</v>
+        <v>4841669.701690952</v>
       </c>
       <c r="H42">
-        <v>2968.775631100392</v>
+        <v>3986259.449024727</v>
       </c>
       <c r="I42">
-        <v>425.8706577103781</v>
+        <v>1116839.997324252</v>
       </c>
       <c r="J42">
-        <v>60.17011365999134</v>
+        <v>4841273.223031912</v>
       </c>
       <c r="K42">
-        <v>379.6142114116011</v>
+        <v>3984697.306352711</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1900,31 +1924,31 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>32.61559595390959</v>
+        <v>1116404.289874834</v>
       </c>
       <c r="G43">
-        <v>356.0562065239159</v>
+        <v>4841686.214510898</v>
       </c>
       <c r="H43">
-        <v>2982.812459978906</v>
+        <v>3986268.388751545</v>
       </c>
       <c r="I43">
-        <v>495.4646333554527</v>
+        <v>1116918.354543119</v>
       </c>
       <c r="J43">
-        <v>5.895676309334747</v>
+        <v>4841224.571483753</v>
       </c>
       <c r="K43">
-        <v>38.1258142321608</v>
+        <v>3984395.156591056</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1935,31 +1959,31 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>32.14647381993159</v>
+        <v>1116403.682907967</v>
       </c>
       <c r="G44">
-        <v>368.7979388060155</v>
+        <v>4841702.727330842</v>
       </c>
       <c r="H44">
-        <v>2996.443079656263</v>
+        <v>3986277.069773256</v>
       </c>
       <c r="I44">
-        <v>566.7722966255033</v>
+        <v>1116998.641236414</v>
       </c>
       <c r="J44">
-        <v>-48.37876104132159</v>
+        <v>4841175.919935595</v>
       </c>
       <c r="K44">
-        <v>-320.4834977016556</v>
+        <v>3984077.858202523</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1970,31 +1994,31 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>31.69702393640544</v>
+        <v>1116403.101393755</v>
       </c>
       <c r="G45">
-        <v>381.5396710881152</v>
+        <v>4841719.240150787</v>
       </c>
       <c r="H45">
-        <v>3009.690340835925</v>
+        <v>3986285.50664294</v>
       </c>
       <c r="I45">
-        <v>639.8358455017318</v>
+        <v>1117080.904915669</v>
       </c>
       <c r="J45">
-        <v>-102.6531983919782</v>
+        <v>4841127.268387438</v>
       </c>
       <c r="K45">
-        <v>-696.2137243898501</v>
+        <v>3983745.411187111</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2005,31 +2029,31 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>31.26590907827308</v>
+        <v>1116402.54360205</v>
       </c>
       <c r="G46">
-        <v>394.281403370215</v>
+        <v>4841735.752970732</v>
       </c>
       <c r="H46">
-        <v>3022.575218704123</v>
+        <v>3986293.712719199</v>
       </c>
       <c r="I46">
-        <v>714.6985170518055</v>
+        <v>1117165.194262345</v>
       </c>
       <c r="J46">
-        <v>-156.9276357426348</v>
+        <v>4841078.616839278</v>
       </c>
       <c r="K46">
-        <v>-1089.064865832423</v>
+        <v>3983397.815544819</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2040,31 +2064,31 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>30.85191588441872</v>
+        <v>1116402.007962962</v>
       </c>
       <c r="G47">
-        <v>407.0231356523147</v>
+        <v>4841752.265790677</v>
       </c>
       <c r="H47">
-        <v>3035.117012724887</v>
+        <v>3986301.70029341</v>
       </c>
       <c r="I47">
-        <v>791.4046130164047</v>
+        <v>1117251.559156638</v>
       </c>
       <c r="J47">
-        <v>-211.2020730932913</v>
+        <v>4841029.965291121</v>
       </c>
       <c r="K47">
-        <v>-1499.036922029371</v>
+        <v>3983035.07127565</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2075,31 +2099,31 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>30.4539404894654</v>
+        <v>1116401.493048271</v>
       </c>
       <c r="G48">
-        <v>419.7648679344144</v>
+        <v>4841768.778610623</v>
       </c>
       <c r="H48">
-        <v>3047.333520519095</v>
+        <v>3986309.480700457</v>
       </c>
       <c r="I48">
-        <v>869.9995260258174</v>
+        <v>1117340.050706998</v>
       </c>
       <c r="J48">
-        <v>-265.4765104439475</v>
+        <v>4840981.313742963</v>
       </c>
       <c r="K48">
-        <v>-1926.129892980694</v>
+        <v>3982657.178379601</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2110,31 +2134,31 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D49" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>30.07097614110718</v>
+        <v>1116400.997555404</v>
       </c>
       <c r="G49">
-        <v>432.5066002165141</v>
+        <v>4841785.291430566</v>
       </c>
       <c r="H49">
-        <v>3059.241189759691</v>
+        <v>3986317.06441548</v>
       </c>
       <c r="I49">
-        <v>950.5297664620937</v>
+        <v>1117430.721280375</v>
       </c>
       <c r="J49">
-        <v>-319.750947794604</v>
+        <v>4840932.662194805</v>
       </c>
       <c r="K49">
-        <v>-2370.343778686397</v>
+        <v>3982264.136856673</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2145,31 +2169,31 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>29.70210248671175</v>
+        <v>1116400.520293578</v>
       </c>
       <c r="G50">
-        <v>445.2483324986138</v>
+        <v>4841801.804250512</v>
       </c>
       <c r="H50">
-        <v>3070.855251336326</v>
+        <v>3986324.461138675</v>
       </c>
       <c r="I50">
-        <v>1033.04298998265</v>
+        <v>1117523.624533207</v>
       </c>
       <c r="J50">
-        <v>-374.0253851452606</v>
+        <v>4840884.010646646</v>
       </c>
       <c r="K50">
-        <v>-2831.678579146478</v>
+        <v>3981855.946706866</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2180,31 +2204,31 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>29.34647626965491</v>
+        <v>1116400.060171756</v>
       </c>
       <c r="G51">
-        <v>457.9900647807135</v>
+        <v>4841818.317070457</v>
       </c>
       <c r="H51">
-        <v>3082.189836494502</v>
+        <v>3986331.679869897</v>
       </c>
       <c r="I51">
-        <v>1117.588025721626</v>
+        <v>1117618.81544317</v>
       </c>
       <c r="J51">
-        <v>-428.2998224959172</v>
+        <v>4840835.359098488</v>
       </c>
       <c r="K51">
-        <v>-3310.134294360935</v>
+        <v>3981432.607930181</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2215,31 +2239,31 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D52" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>29.00332322131627</v>
+        <v>1116399.616188163</v>
       </c>
       <c r="G52">
-        <v>470.7317970628133</v>
+        <v>4841834.829890402</v>
       </c>
       <c r="H52">
-        <v>3093.258080209214</v>
+        <v>3986338.728974507</v>
       </c>
       <c r="I52">
-        <v>1204.214905185669</v>
+        <v>1117716.350341716</v>
       </c>
       <c r="J52">
-        <v>-482.5742598465738</v>
+        <v>4840786.707550331</v>
       </c>
       <c r="K52">
-        <v>-3805.710924329769</v>
+        <v>3980994.120526616</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2250,31 +2274,31 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D53" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>28.67193097130924</v>
+        <v>1116399.187421108</v>
       </c>
       <c r="G53">
-        <v>483.473529344913</v>
+        <v>4841851.342710347</v>
       </c>
       <c r="H53">
-        <v>3104.072212689745</v>
+        <v>3986345.616241637</v>
       </c>
       <c r="I53">
-        <v>1292.974891861244</v>
+        <v>1117816.286947409</v>
       </c>
       <c r="J53">
-        <v>-536.8486971972299</v>
+        <v>4840738.056002173</v>
       </c>
       <c r="K53">
-        <v>-4318.408469052976</v>
+        <v>3980540.484496173</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2285,31 +2309,31 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D54" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>28.35164282821749</v>
+        <v>1116398.77302094</v>
       </c>
       <c r="G54">
-        <v>496.2152616270127</v>
+        <v>4841867.855530292</v>
       </c>
       <c r="H54">
-        <v>3114.643640614265</v>
+        <v>3986352.348935932</v>
       </c>
       <c r="I54">
-        <v>1383.920511551016</v>
+        <v>1117918.684400077</v>
       </c>
       <c r="J54">
-        <v>-591.1231345478865</v>
+        <v>4840689.404454014</v>
       </c>
       <c r="K54">
-        <v>-4848.226928530566</v>
+        <v>3980071.699838851</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2317,34 +2341,34 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E55">
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>279.0664250501745</v>
+        <v>1116577.596118673</v>
       </c>
       <c r="G55">
-        <v>-108.2644270039475</v>
+        <v>4841123.864497155</v>
       </c>
       <c r="H55">
-        <v>661.5715180679553</v>
+        <v>3985229.409160434</v>
       </c>
       <c r="I55">
-        <v>-2364.604758842936</v>
+        <v>1114862.725876029</v>
       </c>
       <c r="J55">
-        <v>2158.100811009508</v>
+        <v>4843226.669627028</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984367.461960304</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2352,34 +2376,34 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E56">
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>279.0664250501745</v>
+        <v>1116577.596118673</v>
       </c>
       <c r="G56">
-        <v>-108.2644270039475</v>
+        <v>4841123.864497155</v>
       </c>
       <c r="H56">
-        <v>661.5715180679553</v>
+        <v>3985229.409160434</v>
       </c>
       <c r="I56">
-        <v>-2317.921164582046</v>
+        <v>1114892.339908843</v>
       </c>
       <c r="J56">
-        <v>2105.603294995763</v>
+        <v>4843178.018004688</v>
       </c>
       <c r="K56">
-        <v>281.9790514860608</v>
+        <v>3984671.257734274</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2387,34 +2411,34 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D57" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E57">
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>279.0664250501745</v>
+        <v>1116577.596118673</v>
       </c>
       <c r="G57">
-        <v>-108.2644270039475</v>
+        <v>4841123.864497155</v>
       </c>
       <c r="H57">
-        <v>661.5715180679553</v>
+        <v>3985229.409160434</v>
       </c>
       <c r="I57">
-        <v>-2270.088029760602</v>
+        <v>1114922.68315997</v>
       </c>
       <c r="J57">
-        <v>2053.105778982019</v>
+        <v>4843129.366382348</v>
       </c>
       <c r="K57">
-        <v>549.8973349194567</v>
+        <v>3984959.904858404</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2422,34 +2446,34 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D58" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E58">
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>279.0664250501745</v>
+        <v>1116577.596118673</v>
       </c>
       <c r="G58">
-        <v>-108.2644270039475</v>
+        <v>4841123.864497155</v>
       </c>
       <c r="H58">
-        <v>661.5715180679553</v>
+        <v>3985229.409160434</v>
       </c>
       <c r="I58">
-        <v>-2221.077047999855</v>
+        <v>1114953.773585742</v>
       </c>
       <c r="J58">
-        <v>2000.608262968275</v>
+        <v>4843080.714760009</v>
       </c>
       <c r="K58">
-        <v>803.7548503001898</v>
+        <v>3985233.403332694</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2457,34 +2481,34 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D59" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E59">
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>279.0664250501745</v>
+        <v>1116577.596118673</v>
       </c>
       <c r="G59">
-        <v>-108.2644270039475</v>
+        <v>4841123.864497155</v>
       </c>
       <c r="H59">
-        <v>661.5715180679553</v>
+        <v>3985229.409160434</v>
       </c>
       <c r="I59">
-        <v>-2170.859215902528</v>
+        <v>1114985.629584645</v>
       </c>
       <c r="J59">
-        <v>1948.110746954531</v>
+        <v>4843032.06313767</v>
       </c>
       <c r="K59">
-        <v>1043.551597628258</v>
+        <v>3985491.753157145</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2492,34 +2516,34 @@
         <v>56</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D60" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E60">
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>279.0664250501745</v>
+        <v>1116577.596118673</v>
       </c>
       <c r="G60">
-        <v>-108.2644270039475</v>
+        <v>4841123.864497155</v>
       </c>
       <c r="H60">
-        <v>661.5715180679553</v>
+        <v>3985229.409160434</v>
       </c>
       <c r="I60">
-        <v>-2119.404815889361</v>
+        <v>1115018.270008214</v>
       </c>
       <c r="J60">
-        <v>1895.613230940786</v>
+        <v>4842983.411515332</v>
       </c>
       <c r="K60">
-        <v>1269.287576903665</v>
+        <v>3985734.954331755</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2527,34 +2551,34 @@
         <v>56</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D61" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E61">
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>279.0664250501745</v>
+        <v>1116577.596118673</v>
       </c>
       <c r="G61">
-        <v>-108.2644270039475</v>
+        <v>4841123.864497155</v>
       </c>
       <c r="H61">
-        <v>661.5715180679553</v>
+        <v>3985229.409160434</v>
       </c>
       <c r="I61">
-        <v>-2066.68339861305</v>
+        <v>1115051.714172185</v>
       </c>
       <c r="J61">
-        <v>1843.115714927042</v>
+        <v>4842934.759892992</v>
       </c>
       <c r="K61">
-        <v>1480.962788126406</v>
+        <v>3985963.006856525</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2562,34 +2586,34 @@
         <v>56</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D62" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E62">
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>279.0664250501745</v>
+        <v>1116577.596118673</v>
       </c>
       <c r="G62">
-        <v>-108.2644270039475</v>
+        <v>4841123.864497155</v>
       </c>
       <c r="H62">
-        <v>661.5715180679553</v>
+        <v>3985229.409160434</v>
       </c>
       <c r="I62">
-        <v>-2012.663764939125</v>
+        <v>1115085.981867925</v>
       </c>
       <c r="J62">
-        <v>1790.618198913297</v>
+        <v>4842886.108270653</v>
       </c>
       <c r="K62">
-        <v>1678.577231296485</v>
+        <v>3986175.910731456</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2597,34 +2621,34 @@
         <v>56</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D63" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E63">
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>279.0664250501745</v>
+        <v>1116577.596118673</v>
       </c>
       <c r="G63">
-        <v>-90.38692266246534</v>
+        <v>4841140.377313983</v>
       </c>
       <c r="H63">
-        <v>661.5715180679553</v>
+        <v>3985229.409160434</v>
       </c>
       <c r="I63">
-        <v>-1957.313947483132</v>
+        <v>1115121.093374148</v>
       </c>
       <c r="J63">
-        <v>1738.120682899553</v>
+        <v>4842837.456648313</v>
       </c>
       <c r="K63">
-        <v>1862.130906413899</v>
+        <v>3986373.665956546</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2632,34 +2656,34 @@
         <v>56</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D64" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E64">
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>216.5881007398111</v>
+        <v>1116528.915594478</v>
       </c>
       <c r="G64">
-        <v>-72.50941832098313</v>
+        <v>4841156.890130809</v>
       </c>
       <c r="H64">
-        <v>815.0516585080496</v>
+        <v>3985428.663621247</v>
       </c>
       <c r="I64">
-        <v>-1900.601191693182</v>
+        <v>1115157.06946891</v>
       </c>
       <c r="J64">
-        <v>1685.623166885809</v>
+        <v>4842788.805025974</v>
       </c>
       <c r="K64">
-        <v>2031.623813478649</v>
+        <v>3986556.272531796</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2667,34 +2691,34 @@
         <v>56</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D65" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E65">
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>179.8852194585568</v>
+        <v>1116500.318228592</v>
       </c>
       <c r="G65">
-        <v>-54.63191397950093</v>
+        <v>4841173.402947636</v>
       </c>
       <c r="H65">
-        <v>906.4722794265431</v>
+        <v>3985547.349768368</v>
       </c>
       <c r="I65">
-        <v>-1842.491936466684</v>
+        <v>1115193.931441907</v>
       </c>
       <c r="J65">
-        <v>1633.125650872064</v>
+        <v>4842740.153403634</v>
       </c>
       <c r="K65">
-        <v>2187.055952490737</v>
+        <v>3986723.730457206</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2702,34 +2726,34 @@
         <v>56</v>
       </c>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D66" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E66">
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>156.7156681342225</v>
+        <v>1116482.265473236</v>
       </c>
       <c r="G66">
-        <v>-36.75440963801873</v>
+        <v>4841189.915764463</v>
       </c>
       <c r="H66">
-        <v>971.8044183134365</v>
+        <v>3985632.166736024</v>
       </c>
       <c r="I66">
-        <v>-1782.951794289767</v>
+        <v>1115231.701107077</v>
       </c>
       <c r="J66">
-        <v>1580.62813485832</v>
+        <v>4842691.501781296</v>
       </c>
       <c r="K66">
-        <v>2328.42732345016</v>
+        <v>3986876.039732777</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2737,34 +2761,34 @@
         <v>56</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D67" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E67">
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>140.5573170913621</v>
+        <v>1116469.675554932</v>
       </c>
       <c r="G67">
-        <v>-18.87690529653652</v>
+        <v>4841206.428581289</v>
       </c>
       <c r="H67">
-        <v>1022.678519862941</v>
+        <v>3985698.213663298</v>
       </c>
       <c r="I67">
-        <v>-1721.945530887671</v>
+        <v>1115270.400815505</v>
       </c>
       <c r="J67">
-        <v>1528.130618844575</v>
+        <v>4842642.850158957</v>
       </c>
       <c r="K67">
-        <v>2455.73792635692</v>
+        <v>3987013.200358507</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2772,34 +2796,34 @@
         <v>56</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D68" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E68">
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>128.5027033259847</v>
+        <v>1116460.283098851</v>
       </c>
       <c r="G68">
-        <v>-0.9994009550543265</v>
+        <v>4841222.941398117</v>
       </c>
       <c r="H68">
-        <v>1064.348355187001</v>
+        <v>3985752.311219802</v>
       </c>
       <c r="I68">
-        <v>-1659.437044374031</v>
+        <v>1115310.053468649</v>
       </c>
       <c r="J68">
-        <v>1475.633102830831</v>
+        <v>4842594.198536618</v>
       </c>
       <c r="K68">
-        <v>2568.987761211016</v>
+        <v>3987135.212334397</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2807,34 +2831,34 @@
         <v>56</v>
       </c>
       <c r="B69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D69" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E69">
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>119.0776787383651</v>
+        <v>1116452.939509814</v>
       </c>
       <c r="G69">
-        <v>16.87810338642788</v>
+        <v>4841239.454214943</v>
       </c>
       <c r="H69">
-        <v>1099.639663955927</v>
+        <v>3985798.12790123</v>
       </c>
       <c r="I69">
-        <v>-1595.389343886746</v>
+        <v>1115350.682531897</v>
       </c>
       <c r="J69">
-        <v>1423.135586817086</v>
+        <v>4842545.546914278</v>
       </c>
       <c r="K69">
-        <v>2668.176828012448</v>
+        <v>3987242.075660448</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2842,34 +2866,34 @@
         <v>56</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D70" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E70">
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>111.4521475884382</v>
+        <v>1116446.998011579</v>
       </c>
       <c r="G70">
-        <v>34.75560772791009</v>
+        <v>4841255.96703177</v>
       </c>
       <c r="H70">
-        <v>1130.248446807756</v>
+        <v>3985837.865527908</v>
       </c>
       <c r="I70">
-        <v>-1529.764527697765</v>
+        <v>1115392.31204845</v>
       </c>
       <c r="J70">
-        <v>1370.638070803342</v>
+        <v>4842496.895291938</v>
       </c>
       <c r="K70">
-        <v>2753.305126761217</v>
+        <v>3987333.790336658</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2877,34 +2901,34 @@
         <v>56</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D71" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E71">
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>105.1202396050336</v>
+        <v>1116442.064450969</v>
       </c>
       <c r="G71">
-        <v>52.63311206939228</v>
+        <v>4841272.479848597</v>
       </c>
       <c r="H71">
-        <v>1157.272973213652</v>
+        <v>3985872.949920079</v>
       </c>
       <c r="I71">
-        <v>-1462.523760783855</v>
+        <v>1115434.96665355</v>
       </c>
       <c r="J71">
-        <v>1318.140554789597</v>
+        <v>4842448.2436696</v>
       </c>
       <c r="K71">
-        <v>2824.372657457322</v>
+        <v>3987410.356363028</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2912,34 +2936,34 @@
         <v>56</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D72" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E72">
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>99.75442400597873</v>
+        <v>1116437.883629556</v>
       </c>
       <c r="G72">
-        <v>70.5106164108745</v>
+        <v>4841288.992665424</v>
       </c>
       <c r="H72">
-        <v>1181.465362462077</v>
+        <v>3985904.357511065</v>
       </c>
       <c r="I72">
-        <v>-1393.62725184506</v>
+        <v>1115478.671589058</v>
       </c>
       <c r="J72">
-        <v>1265.643038775853</v>
+        <v>4842399.592047261</v>
       </c>
       <c r="K72">
-        <v>2881.379420100764</v>
+        <v>3987471.773739559</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2947,34 +2971,34 @@
         <v>56</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D73" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E73">
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>95.13229735832832</v>
+        <v>1116434.282259792</v>
       </c>
       <c r="G73">
-        <v>88.3881207523567</v>
+        <v>4841305.505482251</v>
       </c>
       <c r="H73">
-        <v>1203.363317028091</v>
+        <v>3985932.786369141</v>
       </c>
       <c r="I73">
-        <v>-1323.034229757274</v>
+        <v>1115523.452718396</v>
       </c>
       <c r="J73">
-        <v>1213.145522762109</v>
+        <v>4842350.940424921</v>
       </c>
       <c r="K73">
-        <v>2924.325414691541</v>
+        <v>3987518.042466249</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2982,34 +3006,34 @@
         <v>56</v>
       </c>
       <c r="B74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D74" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E74">
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>91.09694196162904</v>
+        <v>1116431.138077898</v>
       </c>
       <c r="G74">
-        <v>106.2656250938389</v>
+        <v>4841322.018299079</v>
       </c>
       <c r="H74">
-        <v>1223.364598168631</v>
+        <v>3985958.752884925</v>
       </c>
       <c r="I74">
-        <v>-1250.702919444966</v>
+        <v>1115569.336541845</v>
       </c>
       <c r="J74">
-        <v>1160.648006748364</v>
+        <v>4842302.288802582</v>
       </c>
       <c r="K74">
-        <v>2953.210641229655</v>
+        <v>3987549.1625431</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3017,34 +3041,34 @@
         <v>56</v>
       </c>
       <c r="B75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D75" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E75">
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>87.53410454637921</v>
+        <v>1116428.362062458</v>
       </c>
       <c r="G75">
-        <v>124.1431294353211</v>
+        <v>4841338.531115904</v>
       </c>
       <c r="H75">
-        <v>1241.771733982352</v>
+        <v>3985982.64981329</v>
       </c>
       <c r="I75">
-        <v>-1176.590517159802</v>
+        <v>1115616.350212235</v>
       </c>
       <c r="J75">
-        <v>1108.15049073462</v>
+        <v>4842253.637180243</v>
       </c>
       <c r="K75">
-        <v>2968.035099715105</v>
+        <v>3987565.13397011</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3052,34 +3076,34 @@
         <v>56</v>
       </c>
       <c r="B76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D76" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E76">
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>84.35838037659303</v>
+        <v>1116425.887669635</v>
       </c>
       <c r="G76">
-        <v>142.0206337768033</v>
+        <v>4841355.043932731</v>
       </c>
       <c r="H76">
-        <v>1258.820186528407</v>
+        <v>3986004.78284112</v>
       </c>
       <c r="I76">
-        <v>-1100.653165150526</v>
+        <v>1115664.521551006</v>
       </c>
       <c r="J76">
-        <v>1055.652974720875</v>
+        <v>4842204.985557904</v>
       </c>
       <c r="K76">
-        <v>2968.798790147891</v>
+        <v>3987565.95674728</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3087,34 +3111,34 @@
         <v>56</v>
       </c>
       <c r="B77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D77" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E77">
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>81.50449067109993</v>
+        <v>1116423.664036904</v>
       </c>
       <c r="G77">
-        <v>159.8981381182855</v>
+        <v>4841371.556749559</v>
       </c>
       <c r="H77">
-        <v>1274.696818417654</v>
+        <v>3986025.394561423</v>
       </c>
       <c r="I77">
-        <v>-1022.845925709104</v>
+        <v>1115713.879064678</v>
       </c>
       <c r="J77">
-        <v>1003.155458707131</v>
+        <v>4842156.333935564</v>
       </c>
       <c r="K77">
-        <v>2955.501712528014</v>
+        <v>3987551.630874611</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3122,34 +3146,34 @@
         <v>56</v>
       </c>
       <c r="B78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D78" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E78">
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>78.92157655187476</v>
+        <v>1116421.651537135</v>
       </c>
       <c r="G78">
-        <v>177.7756424597677</v>
+        <v>4841388.069566385</v>
       </c>
       <c r="H78">
-        <v>1289.552410760238</v>
+        <v>3986044.68072466</v>
       </c>
       <c r="I78">
-        <v>-943.1227545777847</v>
+        <v>1115764.451961716</v>
       </c>
       <c r="J78">
-        <v>950.6579426933865</v>
+        <v>4842107.682313225</v>
       </c>
       <c r="K78">
-        <v>2928.143866855474</v>
+        <v>3987522.156352101</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3157,34 +3181,34 @@
         <v>56</v>
       </c>
       <c r="B79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D79" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E79">
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>76.56935096074108</v>
+        <v>1116419.818780318</v>
       </c>
       <c r="G79">
-        <v>195.6531468012499</v>
+        <v>4841404.582383213</v>
       </c>
       <c r="H79">
-        <v>1303.510393425577</v>
+        <v>3986062.801572752</v>
       </c>
       <c r="I79">
-        <v>-861.4364737013295</v>
+        <v>1115816.270169817</v>
       </c>
       <c r="J79">
-        <v>898.160426679642</v>
+        <v>4842059.030690886</v>
       </c>
       <c r="K79">
-        <v>2886.725253130269</v>
+        <v>3987477.533179752</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3192,34 +3216,34 @@
         <v>56</v>
       </c>
       <c r="B80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D80" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E80">
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>74.41543423179053</v>
+        <v>1116418.140537558</v>
       </c>
       <c r="G80">
-        <v>213.5306511427321</v>
+        <v>4841421.095200039</v>
       </c>
       <c r="H80">
-        <v>1316.673084781375</v>
+        <v>3986079.889939764</v>
       </c>
       <c r="I80">
-        <v>-777.7387433082921</v>
+        <v>1115869.364353621</v>
       </c>
       <c r="J80">
-        <v>845.6629106658976</v>
+        <v>4842010.379068546</v>
       </c>
       <c r="K80">
-        <v>2831.245871352401</v>
+        <v>3987417.761357562</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3227,34 +3251,34 @@
         <v>56</v>
       </c>
       <c r="B81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D81" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E81">
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>72.43346619591345</v>
+        <v>1116416.596270102</v>
       </c>
       <c r="G81">
-        <v>231.4081554842143</v>
+        <v>4841437.608016866</v>
       </c>
       <c r="H81">
-        <v>1329.126247666205</v>
+        <v>3986096.05716667</v>
       </c>
       <c r="I81">
-        <v>-691.9800333048266</v>
+        <v>1115923.765932855</v>
       </c>
       <c r="J81">
-        <v>793.1653946521533</v>
+        <v>4841961.727446207</v>
       </c>
       <c r="K81">
-        <v>2761.705721521869</v>
+        <v>3987342.840885533</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3262,34 +3286,34 @@
         <v>56</v>
       </c>
       <c r="B82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D82" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E82">
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>70.60174101900473</v>
+        <v>1116415.169065663</v>
       </c>
       <c r="G82">
-        <v>249.2856598256965</v>
+        <v>4841454.120833693</v>
       </c>
       <c r="H82">
-        <v>1340.942479017502</v>
+        <v>3986111.397501908</v>
       </c>
       <c r="I82">
-        <v>-604.1095939640913</v>
+        <v>1115979.507100929</v>
       </c>
       <c r="J82">
-        <v>740.6678786384088</v>
+        <v>4841913.075823868</v>
       </c>
       <c r="K82">
-        <v>2678.104803638674</v>
+        <v>3987252.771763663</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3297,34 +3321,34 @@
         <v>56</v>
       </c>
       <c r="B83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D83" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E83">
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>68.90220203652818</v>
+        <v>1116413.844855235</v>
       </c>
       <c r="G83">
-        <v>267.1631641671787</v>
+        <v>4841470.63365052</v>
       </c>
       <c r="H83">
-        <v>1352.183774075795</v>
+        <v>3986125.991430342</v>
       </c>
       <c r="I83">
-        <v>-514.0754258939126</v>
+        <v>1116036.620843986</v>
       </c>
       <c r="J83">
-        <v>688.1703626246642</v>
+        <v>4841864.424201529</v>
       </c>
       <c r="K83">
-        <v>2580.443117702814</v>
+        <v>3987147.553991954</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3332,34 +3356,34 @@
         <v>56</v>
       </c>
       <c r="B84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C84" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D84" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E84">
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>67.31968959526293</v>
+        <v>1116412.611827045</v>
       </c>
       <c r="G84">
-        <v>285.0406685086609</v>
+        <v>4841487.146467347</v>
       </c>
       <c r="H84">
-        <v>1362.903495207738</v>
+        <v>3986139.908229272</v>
       </c>
       <c r="I84">
-        <v>-421.8242492649217</v>
+        <v>1116095.140960423</v>
       </c>
       <c r="J84">
-        <v>635.67284661092</v>
+        <v>4841815.772579189</v>
       </c>
       <c r="K84">
-        <v>2468.720663714292</v>
+        <v>3987027.187570404</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3367,34 +3391,34 @@
         <v>56</v>
       </c>
       <c r="B85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C85" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D85" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E85">
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>65.84136997598716</v>
+        <v>1116411.459981588</v>
       </c>
       <c r="G85">
-        <v>302.9181728501432</v>
+        <v>4841503.659284174</v>
       </c>
       <c r="H85">
-        <v>1373.14790390163</v>
+        <v>3986153.207957333</v>
       </c>
       <c r="I85">
-        <v>-327.3014722809683</v>
+        <v>1116155.102080889</v>
       </c>
       <c r="J85">
-        <v>583.1753305971755</v>
+        <v>4841767.12095685</v>
       </c>
       <c r="K85">
-        <v>2342.937441673105</v>
+        <v>3986891.672499015</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3402,34 +3426,34 @@
         <v>56</v>
       </c>
       <c r="B86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C86" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D86" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E86">
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>64.45629606306109</v>
+        <v>1116410.380789326</v>
       </c>
       <c r="G86">
-        <v>320.7956771916253</v>
+        <v>4841520.172101</v>
       </c>
       <c r="H86">
-        <v>1382.957367314393</v>
+        <v>3986165.94302089</v>
       </c>
       <c r="I86">
-        <v>-230.4511588731448</v>
+        <v>1116216.539688783</v>
       </c>
       <c r="J86">
-        <v>530.6778145834312</v>
+        <v>4841718.469334511</v>
       </c>
       <c r="K86">
-        <v>2203.093451579255</v>
+        <v>3986741.008777785</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3437,34 +3461,34 @@
         <v>56</v>
       </c>
       <c r="B87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C87" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D87" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E87">
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>63.15506530392574</v>
+        <v>1116409.366924179</v>
       </c>
       <c r="G87">
-        <v>338.6731815331075</v>
+        <v>4841536.684917827</v>
       </c>
       <c r="H87">
-        <v>1392.367318963535</v>
+        <v>3986178.159421245</v>
       </c>
       <c r="I87">
-        <v>-131.2159955983081</v>
+        <v>1116279.49014125</v>
       </c>
       <c r="J87">
-        <v>478.1802985696867</v>
+        <v>4841669.817712172</v>
       </c>
       <c r="K87">
-        <v>2049.188693432741</v>
+        <v>3986575.196406716</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3472,34 +3496,34 @@
         <v>56</v>
       </c>
       <c r="B88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D88" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E88">
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>61.92955049299705</v>
+        <v>1116408.412053765</v>
       </c>
       <c r="G88">
-        <v>356.5506858745898</v>
+        <v>4841553.197734654</v>
       </c>
       <c r="H88">
-        <v>1401.4090313341</v>
+        <v>3986189.897757671</v>
       </c>
       <c r="I88">
-        <v>-29.53725772250514</v>
+        <v>1116343.990690696</v>
       </c>
       <c r="J88">
-        <v>425.6827825559422</v>
+        <v>4841621.166089832</v>
       </c>
       <c r="K88">
-        <v>1881.223167233563</v>
+        <v>3986394.235385806</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3507,34 +3531,34 @@
         <v>56</v>
       </c>
       <c r="B89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D89" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E89">
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>60.77268574596786</v>
+        <v>1116407.510672639</v>
       </c>
       <c r="G89">
-        <v>374.428190216072</v>
+        <v>4841569.710551481</v>
       </c>
       <c r="H89">
-        <v>1410.110242928715</v>
+        <v>3986201.194041475</v>
       </c>
       <c r="I89">
-        <v>74.64522553076615</v>
+        <v>1116410.079506832</v>
       </c>
       <c r="J89">
-        <v>373.1852665421979</v>
+        <v>4841572.514467494</v>
       </c>
       <c r="K89">
-        <v>1699.196872981722</v>
+        <v>3986198.125715057</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3542,34 +3566,34 @@
         <v>56</v>
       </c>
       <c r="B90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C90" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D90" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E90">
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>59.67829477860239</v>
+        <v>1116406.657968497</v>
       </c>
       <c r="G90">
-        <v>392.3056945575541</v>
+        <v>4841586.223368309</v>
       </c>
       <c r="H90">
-        <v>1418.495671476288</v>
+        <v>3986212.080362266</v>
       </c>
       <c r="I90">
-        <v>181.393106588022</v>
+        <v>1116477.795699265</v>
       </c>
       <c r="J90">
-        <v>320.6877505284534</v>
+        <v>4841523.862845154</v>
       </c>
       <c r="K90">
-        <v>1503.109810677217</v>
+        <v>3985986.867394468</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3577,34 +3601,34 @@
         <v>56</v>
       </c>
       <c r="B91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D91" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E91">
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>58.64095195398641</v>
+        <v>1116405.849713906</v>
       </c>
       <c r="G91">
-        <v>410.1831988990364</v>
+        <v>4841602.736185134</v>
       </c>
       <c r="H91">
-        <v>1426.587437234384</v>
+        <v>3986222.585437506</v>
       </c>
       <c r="I91">
-        <v>290.7695560100639</v>
+        <v>1116547.179340639</v>
       </c>
       <c r="J91">
-        <v>268.1902345147091</v>
+        <v>4841475.211222815</v>
       </c>
       <c r="K91">
-        <v>1292.961980320049</v>
+        <v>3985760.460424038</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3612,34 +3636,34 @@
         <v>56</v>
       </c>
       <c r="B92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C92" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D92" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E92">
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>57.6558689585176</v>
+        <v>1116405.08217801</v>
       </c>
       <c r="G92">
-        <v>428.0607032405186</v>
+        <v>4841619.249001962</v>
       </c>
       <c r="H92">
-        <v>1434.405414647473</v>
+        <v>3986232.735069045</v>
       </c>
       <c r="I92">
-        <v>402.839299874634</v>
+        <v>1116618.271490351</v>
       </c>
       <c r="J92">
-        <v>215.6927185009646</v>
+        <v>4841426.559600475</v>
       </c>
       <c r="K92">
-        <v>1068.753381910216</v>
+        <v>3985518.904803769</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3647,34 +3671,34 @@
         <v>56</v>
       </c>
       <c r="B93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C93" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D93" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E93">
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>56.71880170310992</v>
+        <v>1116404.352053992</v>
       </c>
       <c r="G93">
-        <v>445.9382075820008</v>
+        <v>4841635.761818789</v>
       </c>
       <c r="H93">
-        <v>1441.967526436854</v>
+        <v>3986242.552524926</v>
       </c>
       <c r="I93">
-        <v>517.6686580795964</v>
+        <v>1116691.114218845</v>
       </c>
       <c r="J93">
-        <v>163.1952024872201</v>
+        <v>4841377.907978136</v>
       </c>
       <c r="K93">
-        <v>830.4840154477196</v>
+        <v>3985262.20053366</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3682,34 +3706,34 @@
         <v>56</v>
       </c>
       <c r="B94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C94" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D94" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E94">
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>55.82597331895096</v>
+        <v>1116403.656399071</v>
       </c>
       <c r="G94">
-        <v>463.815711923483</v>
+        <v>4841652.274635616</v>
       </c>
       <c r="H94">
-        <v>1449.28999107371</v>
+        <v>3986252.058860656</v>
       </c>
       <c r="I94">
-        <v>635.3255835892817</v>
+        <v>1116765.750632514</v>
       </c>
       <c r="J94">
-        <v>110.6976864734758</v>
+        <v>4841329.256355797</v>
       </c>
       <c r="K94">
-        <v>578.1538809325602</v>
+        <v>3984990.34761371</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3717,34 +3741,34 @@
         <v>56</v>
       </c>
       <c r="B95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C95" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D95" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E95">
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>54.97401006064737</v>
+        <v>1116402.992584565</v>
       </c>
       <c r="G95">
-        <v>481.6932162649651</v>
+        <v>4841668.787452443</v>
       </c>
       <c r="H95">
-        <v>1456.387532230724</v>
+        <v>3986261.273191138</v>
       </c>
       <c r="I95">
-        <v>755.8797026472589</v>
+        <v>1116842.224899206</v>
       </c>
       <c r="J95">
-        <v>58.20017045973133</v>
+        <v>4841280.604733459</v>
       </c>
       <c r="K95">
-        <v>311.7629783647365</v>
+        <v>3984703.346043921</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3752,34 +3776,34 @@
         <v>56</v>
       </c>
       <c r="B96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C96" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D96" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E96">
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>54.15988763612007</v>
+        <v>1116402.35825407</v>
       </c>
       <c r="G96">
-        <v>499.5707206064474</v>
+        <v>4841685.300269269</v>
       </c>
       <c r="H96">
-        <v>1463.273557013656</v>
+        <v>3986270.212922046</v>
       </c>
       <c r="I96">
-        <v>879.4023559792819</v>
+        <v>1116920.58227436</v>
       </c>
       <c r="J96">
-        <v>5.702654445986822</v>
+        <v>4841231.953111119</v>
       </c>
       <c r="K96">
-        <v>31.31130774424917</v>
+        <v>3984401.195824292</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3787,34 +3811,34 @@
         <v>56</v>
       </c>
       <c r="B97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C97" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D97" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E97">
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>53.38088601677913</v>
+        <v>1116401.751288252</v>
       </c>
       <c r="G97">
-        <v>517.4482249479296</v>
+        <v>4841701.813086096</v>
       </c>
       <c r="H97">
-        <v>1469.960308395849</v>
+        <v>3986278.89394773</v>
       </c>
       <c r="I97">
-        <v>1005.966641010848</v>
+        <v>1117000.869127789</v>
       </c>
       <c r="J97">
-        <v>-46.79486156775744</v>
+        <v>4841183.301488779</v>
       </c>
       <c r="K97">
-        <v>-263.201130928901</v>
+        <v>3984083.896954822</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3822,34 +3846,34 @@
         <v>56</v>
       </c>
       <c r="B98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C98" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D98" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E98">
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>52.63455118897949</v>
+        <v>1116401.169775047</v>
       </c>
       <c r="G98">
-        <v>535.3257292894117</v>
+        <v>4841718.325902923</v>
       </c>
       <c r="H98">
-        <v>1476.4589962105</v>
+        <v>3986287.330821275</v>
       </c>
       <c r="I98">
-        <v>1135.647455124309</v>
+        <v>1117083.132971122</v>
       </c>
       <c r="J98">
-        <v>-99.29237758150195</v>
+        <v>4841134.64986644</v>
       </c>
       <c r="K98">
-        <v>-571.7743376547156</v>
+        <v>3983751.449435513</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3857,34 +3881,34 @@
         <v>56</v>
       </c>
       <c r="B99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D99" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E99">
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>51.91866262120027</v>
+        <v>1116400.611984307</v>
       </c>
       <c r="G99">
-        <v>553.203233630894</v>
+        <v>4841734.83871975</v>
       </c>
       <c r="H99">
-        <v>1482.779910221305</v>
+        <v>3986295.536901289</v>
       </c>
       <c r="I99">
-        <v>1268.521539981154</v>
+        <v>1117167.422485915</v>
       </c>
       <c r="J99">
-        <v>-151.7898935952465</v>
+        <v>4841085.9982441</v>
       </c>
       <c r="K99">
-        <v>-894.4083124331947</v>
+        <v>3983403.853266363</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3892,34 +3916,34 @@
         <v>56</v>
       </c>
       <c r="B100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C100" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D100" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E100">
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>51.23120546441687</v>
+        <v>1116400.076346146</v>
       </c>
       <c r="G100">
-        <v>571.0807379723761</v>
+        <v>4841751.351536577</v>
       </c>
       <c r="H100">
-        <v>1488.93251813559</v>
+        <v>3986303.524479155</v>
       </c>
       <c r="I100">
-        <v>1404.667526935682</v>
+        <v>1117253.787552466</v>
       </c>
       <c r="J100">
-        <v>-204.287409608991</v>
+        <v>4841037.346621762</v>
       </c>
       <c r="K100">
-        <v>-1231.103055264337</v>
+        <v>3983041.108447375</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3927,34 +3951,34 @@
         <v>56</v>
       </c>
       <c r="B101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C101" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D101" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E101">
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>50.57034669295454</v>
+        <v>1116399.561432346</v>
       </c>
       <c r="G101">
-        <v>588.9582423138584</v>
+        <v>4841767.864353404</v>
       </c>
       <c r="H101">
-        <v>1494.92555090388</v>
+        <v>3986311.304889763</v>
       </c>
       <c r="I101">
-        <v>1544.165983566953</v>
+        <v>1117342.279279326</v>
       </c>
       <c r="J101">
-        <v>-256.784925622735</v>
+        <v>4840988.694999423</v>
       </c>
       <c r="K101">
-        <v>-1581.85856614814</v>
+        <v>3982663.214978545</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3962,34 +3986,34 @@
         <v>56</v>
       </c>
       <c r="B102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C102" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D102" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E102">
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>49.93441454242657</v>
+        <v>1116399.065940336</v>
       </c>
       <c r="G102">
-        <v>606.8357466553406</v>
+        <v>4841784.37717023</v>
       </c>
       <c r="H102">
-        <v>1500.767077234889</v>
+        <v>3986318.888608256</v>
       </c>
       <c r="I102">
-        <v>1687.099461356544</v>
+        <v>1117432.950033548</v>
       </c>
       <c r="J102">
-        <v>-309.2824416364795</v>
+        <v>4840940.043377084</v>
       </c>
       <c r="K102">
-        <v>-1946.67484508461</v>
+        <v>3982270.172859876</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -3997,34 +4021,34 @@
         <v>56</v>
       </c>
       <c r="B103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C103" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D103" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E103">
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>49.32188071958264</v>
+        <v>1116398.588679336</v>
       </c>
       <c r="G103">
-        <v>624.7132509968228</v>
+        <v>4841800.889987058</v>
       </c>
       <c r="H103">
-        <v>1506.464568921892</v>
+        <v>3986326.285334835</v>
       </c>
       <c r="I103">
-        <v>1833.552544540314</v>
+        <v>1117525.853471678</v>
       </c>
       <c r="J103">
-        <v>-361.779957650224</v>
+        <v>4840891.391754744</v>
       </c>
       <c r="K103">
-        <v>-2325.551892073743</v>
+        <v>3981861.982091366</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4032,34 +4056,34 @@
         <v>56</v>
       </c>
       <c r="B104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C104" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D104" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E104">
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>48.73134495308997</v>
+        <v>1116398.12855831</v>
       </c>
       <c r="G104">
-        <v>642.5907553383049</v>
+        <v>4841817.402803885</v>
       </c>
       <c r="H104">
-        <v>1512.024958307484</v>
+        <v>3986333.504069362</v>
       </c>
       <c r="I104">
-        <v>1983.611900163118</v>
+        <v>1117621.044571503</v>
       </c>
       <c r="J104">
-        <v>-414.2774736639685</v>
+        <v>4840842.740132404</v>
       </c>
       <c r="K104">
-        <v>-2718.489707115541</v>
+        <v>3981438.642673017</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4067,34 +4091,34 @@
         <v>56</v>
       </c>
       <c r="B105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C105" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D105" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E105">
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>48.16152152977199</v>
+        <v>1116397.684575485</v>
       </c>
       <c r="G105">
-        <v>660.4682596797873</v>
+        <v>4841833.915620712</v>
       </c>
       <c r="H105">
-        <v>1517.454688995425</v>
+        <v>3986340.553177197</v>
       </c>
       <c r="I105">
-        <v>2137.36632936606</v>
+        <v>1117718.579664586</v>
       </c>
       <c r="J105">
-        <v>-466.7749896777131</v>
+        <v>4840794.088510065</v>
       </c>
       <c r="K105">
-        <v>-3125.488290210001</v>
+        <v>3981000.154604828</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4102,34 +4126,34 @@
         <v>56</v>
       </c>
       <c r="B106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C106" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D106" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E106">
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>47.61122752167768</v>
+        <v>1116397.255809171</v>
       </c>
       <c r="G106">
-        <v>678.3457640212694</v>
+        <v>4841850.428437538</v>
       </c>
       <c r="H106">
-        <v>1522.759760740002</v>
+        <v>3986347.440447479</v>
       </c>
       <c r="I106">
-        <v>2294.90681993664</v>
+        <v>1117818.516469605</v>
       </c>
       <c r="J106">
-        <v>-519.272505691457</v>
+        <v>4840745.436887727</v>
       </c>
       <c r="K106">
-        <v>-3546.547641357122</v>
+        <v>3980546.517886799</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4137,34 +4161,3744 @@
         <v>56</v>
       </c>
       <c r="B107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C107" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D107" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E107">
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>47.0793724586721</v>
+        <v>1116396.841409721</v>
       </c>
       <c r="G107">
-        <v>696.2232683627516</v>
+        <v>4841866.941254365</v>
       </c>
       <c r="H107">
-        <v>1527.945769297152</v>
+        <v>3986354.173144855</v>
       </c>
       <c r="I107">
-        <v>2456.326600152929</v>
+        <v>1117920.914126509</v>
       </c>
       <c r="J107">
-        <v>-571.7700217052015</v>
+        <v>4840696.785265387</v>
       </c>
       <c r="K107">
-        <v>-3981.66776055691</v>
+        <v>3980077.73251893</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108">
+        <v>56</v>
+      </c>
+      <c r="B108" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108" t="s">
+        <v>21</v>
+      </c>
+      <c r="E108">
+        <v>152.142</v>
+      </c>
+      <c r="F108">
+        <v>1116576.989354242</v>
+      </c>
+      <c r="G108">
+        <v>4841126.55814262</v>
+      </c>
+      <c r="H108">
+        <v>3985233.42558641</v>
+      </c>
+      <c r="I108">
+        <v>1114861.819979908</v>
+      </c>
+      <c r="J108">
+        <v>4843227.918261718</v>
+      </c>
+      <c r="K108">
+        <v>3984372.120544407</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109">
+        <v>56</v>
+      </c>
+      <c r="B109" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" t="s">
+        <v>17</v>
+      </c>
+      <c r="D109" t="s">
+        <v>21</v>
+      </c>
+      <c r="E109">
+        <v>153.142</v>
+      </c>
+      <c r="F109">
+        <v>1116576.989354242</v>
+      </c>
+      <c r="G109">
+        <v>4841126.55814262</v>
+      </c>
+      <c r="H109">
+        <v>3985233.42558641</v>
+      </c>
+      <c r="I109">
+        <v>1114891.433988658</v>
+      </c>
+      <c r="J109">
+        <v>4843179.266626836</v>
+      </c>
+      <c r="K109">
+        <v>3984675.916673579</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110">
+        <v>56</v>
+      </c>
+      <c r="B110" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" t="s">
+        <v>17</v>
+      </c>
+      <c r="D110" t="s">
+        <v>21</v>
+      </c>
+      <c r="E110">
+        <v>154.142</v>
+      </c>
+      <c r="F110">
+        <v>1116576.989354242</v>
+      </c>
+      <c r="G110">
+        <v>4841126.55814262</v>
+      </c>
+      <c r="H110">
+        <v>3985233.42558641</v>
+      </c>
+      <c r="I110">
+        <v>1114921.77721513</v>
+      </c>
+      <c r="J110">
+        <v>4843130.614991954</v>
+      </c>
+      <c r="K110">
+        <v>3984964.5641352</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111">
+        <v>56</v>
+      </c>
+      <c r="B111" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" t="s">
+        <v>17</v>
+      </c>
+      <c r="D111" t="s">
+        <v>21</v>
+      </c>
+      <c r="E111">
+        <v>155.142</v>
+      </c>
+      <c r="F111">
+        <v>1116576.989354242</v>
+      </c>
+      <c r="G111">
+        <v>4841126.55814262</v>
+      </c>
+      <c r="H111">
+        <v>3985233.42558641</v>
+      </c>
+      <c r="I111">
+        <v>1114952.867615639</v>
+      </c>
+      <c r="J111">
+        <v>4843081.963357071</v>
+      </c>
+      <c r="K111">
+        <v>3985238.062929269</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112">
+        <v>56</v>
+      </c>
+      <c r="B112" t="s">
+        <v>13</v>
+      </c>
+      <c r="C112" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112" t="s">
+        <v>21</v>
+      </c>
+      <c r="E112">
+        <v>156.142</v>
+      </c>
+      <c r="F112">
+        <v>1116576.989354242</v>
+      </c>
+      <c r="G112">
+        <v>4841126.55814262</v>
+      </c>
+      <c r="H112">
+        <v>3985233.42558641</v>
+      </c>
+      <c r="I112">
+        <v>1114984.723588657</v>
+      </c>
+      <c r="J112">
+        <v>4843033.311722189</v>
+      </c>
+      <c r="K112">
+        <v>3985496.413055786</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113">
+        <v>56</v>
+      </c>
+      <c r="B113" t="s">
+        <v>13</v>
+      </c>
+      <c r="C113" t="s">
+        <v>17</v>
+      </c>
+      <c r="D113" t="s">
+        <v>21</v>
+      </c>
+      <c r="E113">
+        <v>157.142</v>
+      </c>
+      <c r="F113">
+        <v>1116576.989354242</v>
+      </c>
+      <c r="G113">
+        <v>4841126.55814262</v>
+      </c>
+      <c r="H113">
+        <v>3985233.42558641</v>
+      </c>
+      <c r="I113">
+        <v>1115017.363985704</v>
+      </c>
+      <c r="J113">
+        <v>4842984.660087308</v>
+      </c>
+      <c r="K113">
+        <v>3985739.614514751</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114">
+        <v>56</v>
+      </c>
+      <c r="B114" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114" t="s">
+        <v>17</v>
+      </c>
+      <c r="D114" t="s">
+        <v>21</v>
+      </c>
+      <c r="E114">
+        <v>158.142</v>
+      </c>
+      <c r="F114">
+        <v>1116576.989354242</v>
+      </c>
+      <c r="G114">
+        <v>4841126.55814262</v>
+      </c>
+      <c r="H114">
+        <v>3985233.42558641</v>
+      </c>
+      <c r="I114">
+        <v>1115050.808122499</v>
+      </c>
+      <c r="J114">
+        <v>4842936.008452425</v>
+      </c>
+      <c r="K114">
+        <v>3985967.667306163</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115">
+        <v>56</v>
+      </c>
+      <c r="B115" t="s">
+        <v>13</v>
+      </c>
+      <c r="C115" t="s">
+        <v>17</v>
+      </c>
+      <c r="D115" t="s">
+        <v>21</v>
+      </c>
+      <c r="E115">
+        <v>159.142</v>
+      </c>
+      <c r="F115">
+        <v>1116576.989354242</v>
+      </c>
+      <c r="G115">
+        <v>4841126.55814262</v>
+      </c>
+      <c r="H115">
+        <v>3985233.42558641</v>
+      </c>
+      <c r="I115">
+        <v>1115085.075790395</v>
+      </c>
+      <c r="J115">
+        <v>4842887.356817544</v>
+      </c>
+      <c r="K115">
+        <v>3986180.571430025</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116">
+        <v>56</v>
+      </c>
+      <c r="B116" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116" t="s">
+        <v>17</v>
+      </c>
+      <c r="D116" t="s">
+        <v>21</v>
+      </c>
+      <c r="E116">
+        <v>160.142</v>
+      </c>
+      <c r="F116">
+        <v>1116576.989354242</v>
+      </c>
+      <c r="G116">
+        <v>4841143.070968635</v>
+      </c>
+      <c r="H116">
+        <v>3985233.42558641</v>
+      </c>
+      <c r="I116">
+        <v>1115120.187268087</v>
+      </c>
+      <c r="J116">
+        <v>4842838.705182661</v>
+      </c>
+      <c r="K116">
+        <v>3986378.326886333</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117">
+        <v>56</v>
+      </c>
+      <c r="B117" t="s">
+        <v>13</v>
+      </c>
+      <c r="C117" t="s">
+        <v>17</v>
+      </c>
+      <c r="D117" t="s">
+        <v>21</v>
+      </c>
+      <c r="E117">
+        <v>161.142</v>
+      </c>
+      <c r="F117">
+        <v>1116528.308856501</v>
+      </c>
+      <c r="G117">
+        <v>4841159.58379465</v>
+      </c>
+      <c r="H117">
+        <v>3985432.680248037</v>
+      </c>
+      <c r="I117">
+        <v>1115156.163333616</v>
+      </c>
+      <c r="J117">
+        <v>4842790.053547779</v>
+      </c>
+      <c r="K117">
+        <v>3986560.93367509</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118">
+        <v>56</v>
+      </c>
+      <c r="B118" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118" t="s">
+        <v>17</v>
+      </c>
+      <c r="D118" t="s">
+        <v>21</v>
+      </c>
+      <c r="E118">
+        <v>162.142</v>
+      </c>
+      <c r="F118">
+        <v>1116499.711506156</v>
+      </c>
+      <c r="G118">
+        <v>4841176.096620665</v>
+      </c>
+      <c r="H118">
+        <v>3985551.366514773</v>
+      </c>
+      <c r="I118">
+        <v>1115193.025276661</v>
+      </c>
+      <c r="J118">
+        <v>4842741.401912897</v>
+      </c>
+      <c r="K118">
+        <v>3986728.391796295</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119">
+        <v>56</v>
+      </c>
+      <c r="B119" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119" t="s">
+        <v>17</v>
+      </c>
+      <c r="D119" t="s">
+        <v>21</v>
+      </c>
+      <c r="E119">
+        <v>163.142</v>
+      </c>
+      <c r="F119">
+        <v>1116481.65876061</v>
+      </c>
+      <c r="G119">
+        <v>4841192.60944668</v>
+      </c>
+      <c r="H119">
+        <v>3985636.18356791</v>
+      </c>
+      <c r="I119">
+        <v>1115230.794911141</v>
+      </c>
+      <c r="J119">
+        <v>4842692.750278015</v>
+      </c>
+      <c r="K119">
+        <v>3986880.701249947</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120">
+        <v>56</v>
+      </c>
+      <c r="B120" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120" t="s">
+        <v>17</v>
+      </c>
+      <c r="D120" t="s">
+        <v>21</v>
+      </c>
+      <c r="E120">
+        <v>164.142</v>
+      </c>
+      <c r="F120">
+        <v>1116469.068849147</v>
+      </c>
+      <c r="G120">
+        <v>4841209.122272694</v>
+      </c>
+      <c r="H120">
+        <v>3985702.230561748</v>
+      </c>
+      <c r="I120">
+        <v>1115269.494588122</v>
+      </c>
+      <c r="J120">
+        <v>4842644.098643132</v>
+      </c>
+      <c r="K120">
+        <v>3987017.862036048</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121">
+        <v>56</v>
+      </c>
+      <c r="B121" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121" t="s">
+        <v>17</v>
+      </c>
+      <c r="D121" t="s">
+        <v>21</v>
+      </c>
+      <c r="E121">
+        <v>165.142</v>
+      </c>
+      <c r="F121">
+        <v>1116459.67639817</v>
+      </c>
+      <c r="G121">
+        <v>4841225.635098709</v>
+      </c>
+      <c r="H121">
+        <v>3985756.328172773</v>
+      </c>
+      <c r="I121">
+        <v>1115309.147209046</v>
+      </c>
+      <c r="J121">
+        <v>4842595.447008251</v>
+      </c>
+      <c r="K121">
+        <v>3987139.874154597</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122">
+        <v>56</v>
+      </c>
+      <c r="B122" t="s">
+        <v>13</v>
+      </c>
+      <c r="C122" t="s">
+        <v>17</v>
+      </c>
+      <c r="D122" t="s">
+        <v>21</v>
+      </c>
+      <c r="E122">
+        <v>166.142</v>
+      </c>
+      <c r="F122">
+        <v>1116452.332813124</v>
+      </c>
+      <c r="G122">
+        <v>4841242.147924723</v>
+      </c>
+      <c r="H122">
+        <v>3985802.144900376</v>
+      </c>
+      <c r="I122">
+        <v>1115349.776239281</v>
+      </c>
+      <c r="J122">
+        <v>4842546.795373368</v>
+      </c>
+      <c r="K122">
+        <v>3987246.737605593</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123">
+        <v>56</v>
+      </c>
+      <c r="B123" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" t="s">
+        <v>17</v>
+      </c>
+      <c r="D123" t="s">
+        <v>21</v>
+      </c>
+      <c r="E123">
+        <v>167.142</v>
+      </c>
+      <c r="F123">
+        <v>1116446.391318117</v>
+      </c>
+      <c r="G123">
+        <v>4841258.660750738</v>
+      </c>
+      <c r="H123">
+        <v>3985841.882567103</v>
+      </c>
+      <c r="I123">
+        <v>1115391.405722007</v>
+      </c>
+      <c r="J123">
+        <v>4842498.143738486</v>
+      </c>
+      <c r="K123">
+        <v>3987338.452389037</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124">
+        <v>56</v>
+      </c>
+      <c r="B124" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124" t="s">
+        <v>17</v>
+      </c>
+      <c r="D124" t="s">
+        <v>21</v>
+      </c>
+      <c r="E124">
+        <v>168.142</v>
+      </c>
+      <c r="F124">
+        <v>1116441.457760188</v>
+      </c>
+      <c r="G124">
+        <v>4841275.173576754</v>
+      </c>
+      <c r="H124">
+        <v>3985876.966994633</v>
+      </c>
+      <c r="I124">
+        <v>1115434.060292447</v>
+      </c>
+      <c r="J124">
+        <v>4842449.492103605</v>
+      </c>
+      <c r="K124">
+        <v>3987415.01850493</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125">
+        <v>56</v>
+      </c>
+      <c r="B125" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125" t="s">
+        <v>17</v>
+      </c>
+      <c r="D125" t="s">
+        <v>21</v>
+      </c>
+      <c r="E125">
+        <v>169.142</v>
+      </c>
+      <c r="F125">
+        <v>1116437.276941048</v>
+      </c>
+      <c r="G125">
+        <v>4841291.686402768</v>
+      </c>
+      <c r="H125">
+        <v>3985908.374617273</v>
+      </c>
+      <c r="I125">
+        <v>1115477.765192442</v>
+      </c>
+      <c r="J125">
+        <v>4842400.840468722</v>
+      </c>
+      <c r="K125">
+        <v>3987476.435953271</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126">
+        <v>56</v>
+      </c>
+      <c r="B126" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126" t="s">
+        <v>17</v>
+      </c>
+      <c r="D126" t="s">
+        <v>21</v>
+      </c>
+      <c r="E126">
+        <v>170.142</v>
+      </c>
+      <c r="F126">
+        <v>1116433.67557324</v>
+      </c>
+      <c r="G126">
+        <v>4841308.199228783</v>
+      </c>
+      <c r="H126">
+        <v>3985936.803503999</v>
+      </c>
+      <c r="I126">
+        <v>1115522.546285392</v>
+      </c>
+      <c r="J126">
+        <v>4842352.188833839</v>
+      </c>
+      <c r="K126">
+        <v>3987522.704734059</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127">
+        <v>56</v>
+      </c>
+      <c r="B127" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127" t="s">
+        <v>17</v>
+      </c>
+      <c r="D127" t="s">
+        <v>21</v>
+      </c>
+      <c r="E127">
+        <v>171.142</v>
+      </c>
+      <c r="F127">
+        <v>1116430.531393056</v>
+      </c>
+      <c r="G127">
+        <v>4841324.712054797</v>
+      </c>
+      <c r="H127">
+        <v>3985962.770045953</v>
+      </c>
+      <c r="I127">
+        <v>1115568.430071559</v>
+      </c>
+      <c r="J127">
+        <v>4842303.537198958</v>
+      </c>
+      <c r="K127">
+        <v>3987553.824847296</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128">
+        <v>56</v>
+      </c>
+      <c r="B128" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128" t="s">
+        <v>17</v>
+      </c>
+      <c r="D128" t="s">
+        <v>21</v>
+      </c>
+      <c r="E128">
+        <v>172.142</v>
+      </c>
+      <c r="F128">
+        <v>1116427.755379124</v>
+      </c>
+      <c r="G128">
+        <v>4841341.224880812</v>
+      </c>
+      <c r="H128">
+        <v>3985986.666998403</v>
+      </c>
+      <c r="I128">
+        <v>1115615.443703747</v>
+      </c>
+      <c r="J128">
+        <v>4842254.885564076</v>
+      </c>
+      <c r="K128">
+        <v>3987569.79629298</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129">
+        <v>56</v>
+      </c>
+      <c r="B129" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129" t="s">
+        <v>17</v>
+      </c>
+      <c r="D129" t="s">
+        <v>21</v>
+      </c>
+      <c r="E129">
+        <v>173.142</v>
+      </c>
+      <c r="F129">
+        <v>1116425.280987645</v>
+      </c>
+      <c r="G129">
+        <v>4841357.737706827</v>
+      </c>
+      <c r="H129">
+        <v>3986008.800048539</v>
+      </c>
+      <c r="I129">
+        <v>1115663.615003376</v>
+      </c>
+      <c r="J129">
+        <v>4842206.233929194</v>
+      </c>
+      <c r="K129">
+        <v>3987570.619071113</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130">
+        <v>56</v>
+      </c>
+      <c r="B130" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" t="s">
+        <v>17</v>
+      </c>
+      <c r="D130" t="s">
+        <v>21</v>
+      </c>
+      <c r="E130">
+        <v>174.142</v>
+      </c>
+      <c r="F130">
+        <v>1116423.057356123</v>
+      </c>
+      <c r="G130">
+        <v>4841374.250532842</v>
+      </c>
+      <c r="H130">
+        <v>3986029.411789614</v>
+      </c>
+      <c r="I130">
+        <v>1115712.972476941</v>
+      </c>
+      <c r="J130">
+        <v>4842157.582294311</v>
+      </c>
+      <c r="K130">
+        <v>3987556.293181693</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131">
+        <v>56</v>
+      </c>
+      <c r="B131" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131" t="s">
+        <v>17</v>
+      </c>
+      <c r="D131" t="s">
+        <v>21</v>
+      </c>
+      <c r="E131">
+        <v>175.142</v>
+      </c>
+      <c r="F131">
+        <v>1116421.044857447</v>
+      </c>
+      <c r="G131">
+        <v>4841390.763358857</v>
+      </c>
+      <c r="H131">
+        <v>3986048.697972289</v>
+      </c>
+      <c r="I131">
+        <v>1115763.545332886</v>
+      </c>
+      <c r="J131">
+        <v>4842108.930659429</v>
+      </c>
+      <c r="K131">
+        <v>3987526.818624721</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132">
+        <v>56</v>
+      </c>
+      <c r="B132" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" t="s">
+        <v>17</v>
+      </c>
+      <c r="D132" t="s">
+        <v>21</v>
+      </c>
+      <c r="E132">
+        <v>176.142</v>
+      </c>
+      <c r="F132">
+        <v>1116419.212101626</v>
+      </c>
+      <c r="G132">
+        <v>4841407.276184872</v>
+      </c>
+      <c r="H132">
+        <v>3986066.818838644</v>
+      </c>
+      <c r="I132">
+        <v>1115815.363498881</v>
+      </c>
+      <c r="J132">
+        <v>4842060.279024547</v>
+      </c>
+      <c r="K132">
+        <v>3987482.195400198</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133">
+        <v>56</v>
+      </c>
+      <c r="B133" t="s">
+        <v>13</v>
+      </c>
+      <c r="C133" t="s">
+        <v>17</v>
+      </c>
+      <c r="D133" t="s">
+        <v>21</v>
+      </c>
+      <c r="E133">
+        <v>177.142</v>
+      </c>
+      <c r="F133">
+        <v>1116417.533859778</v>
+      </c>
+      <c r="G133">
+        <v>4841423.789010886</v>
+      </c>
+      <c r="H133">
+        <v>3986083.907222878</v>
+      </c>
+      <c r="I133">
+        <v>1115868.457639542</v>
+      </c>
+      <c r="J133">
+        <v>4842011.627389665</v>
+      </c>
+      <c r="K133">
+        <v>3987422.423508122</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134">
+        <v>56</v>
+      </c>
+      <c r="B134" t="s">
+        <v>13</v>
+      </c>
+      <c r="C134" t="s">
+        <v>17</v>
+      </c>
+      <c r="D134" t="s">
+        <v>21</v>
+      </c>
+      <c r="E134">
+        <v>178.142</v>
+      </c>
+      <c r="F134">
+        <v>1116415.989593162</v>
+      </c>
+      <c r="G134">
+        <v>4841440.301836901</v>
+      </c>
+      <c r="H134">
+        <v>3986100.074466078</v>
+      </c>
+      <c r="I134">
+        <v>1115922.859174572</v>
+      </c>
+      <c r="J134">
+        <v>4841962.975754783</v>
+      </c>
+      <c r="K134">
+        <v>3987347.502948494</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135">
+        <v>56</v>
+      </c>
+      <c r="B135" t="s">
+        <v>13</v>
+      </c>
+      <c r="C135" t="s">
+        <v>17</v>
+      </c>
+      <c r="D135" t="s">
+        <v>21</v>
+      </c>
+      <c r="E135">
+        <v>179.142</v>
+      </c>
+      <c r="F135">
+        <v>1116414.562389498</v>
+      </c>
+      <c r="G135">
+        <v>4841456.814662916</v>
+      </c>
+      <c r="H135">
+        <v>3986115.414816776</v>
+      </c>
+      <c r="I135">
+        <v>1115978.600297353</v>
+      </c>
+      <c r="J135">
+        <v>4841914.3241199</v>
+      </c>
+      <c r="K135">
+        <v>3987257.433721315</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136">
+        <v>56</v>
+      </c>
+      <c r="B136" t="s">
+        <v>13</v>
+      </c>
+      <c r="C136" t="s">
+        <v>17</v>
+      </c>
+      <c r="D136" t="s">
+        <v>21</v>
+      </c>
+      <c r="E136">
+        <v>180.142</v>
+      </c>
+      <c r="F136">
+        <v>1116413.23817979</v>
+      </c>
+      <c r="G136">
+        <v>4841473.32748893</v>
+      </c>
+      <c r="H136">
+        <v>3986130.008759919</v>
+      </c>
+      <c r="I136">
+        <v>1116035.713994002</v>
+      </c>
+      <c r="J136">
+        <v>4841865.672485019</v>
+      </c>
+      <c r="K136">
+        <v>3987152.215826583</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137">
+        <v>56</v>
+      </c>
+      <c r="B137" t="s">
+        <v>13</v>
+      </c>
+      <c r="C137" t="s">
+        <v>17</v>
+      </c>
+      <c r="D137" t="s">
+        <v>21</v>
+      </c>
+      <c r="E137">
+        <v>181.142</v>
+      </c>
+      <c r="F137">
+        <v>1116412.005152269</v>
+      </c>
+      <c r="G137">
+        <v>4841489.840314945</v>
+      </c>
+      <c r="H137">
+        <v>3986143.925572874</v>
+      </c>
+      <c r="I137">
+        <v>1116094.234062887</v>
+      </c>
+      <c r="J137">
+        <v>4841817.020850136</v>
+      </c>
+      <c r="K137">
+        <v>3987031.849264299</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138">
+        <v>56</v>
+      </c>
+      <c r="B138" t="s">
+        <v>13</v>
+      </c>
+      <c r="C138" t="s">
+        <v>17</v>
+      </c>
+      <c r="D138" t="s">
+        <v>21</v>
+      </c>
+      <c r="E138">
+        <v>182.142</v>
+      </c>
+      <c r="F138">
+        <v>1116410.853307439</v>
+      </c>
+      <c r="G138">
+        <v>4841506.35314096</v>
+      </c>
+      <c r="H138">
+        <v>3986157.22531434</v>
+      </c>
+      <c r="I138">
+        <v>1116154.19513463</v>
+      </c>
+      <c r="J138">
+        <v>4841768.369215254</v>
+      </c>
+      <c r="K138">
+        <v>3986896.334034463</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139">
+        <v>56</v>
+      </c>
+      <c r="B139" t="s">
+        <v>13</v>
+      </c>
+      <c r="C139" t="s">
+        <v>17</v>
+      </c>
+      <c r="D139" t="s">
+        <v>21</v>
+      </c>
+      <c r="E139">
+        <v>183.142</v>
+      </c>
+      <c r="F139">
+        <v>1116409.774115763</v>
+      </c>
+      <c r="G139">
+        <v>4841522.865966975</v>
+      </c>
+      <c r="H139">
+        <v>3986169.960390731</v>
+      </c>
+      <c r="I139">
+        <v>1116215.632692603</v>
+      </c>
+      <c r="J139">
+        <v>4841719.717580372</v>
+      </c>
+      <c r="K139">
+        <v>3986745.670137076</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140">
+        <v>56</v>
+      </c>
+      <c r="B140" t="s">
+        <v>13</v>
+      </c>
+      <c r="C140" t="s">
+        <v>17</v>
+      </c>
+      <c r="D140" t="s">
+        <v>21</v>
+      </c>
+      <c r="E140">
+        <v>184.142</v>
+      </c>
+      <c r="F140">
+        <v>1116408.760251167</v>
+      </c>
+      <c r="G140">
+        <v>4841539.37879299</v>
+      </c>
+      <c r="H140">
+        <v>3986182.176803397</v>
+      </c>
+      <c r="I140">
+        <v>1116278.583093919</v>
+      </c>
+      <c r="J140">
+        <v>4841671.06594549</v>
+      </c>
+      <c r="K140">
+        <v>3986579.857572136</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141">
+        <v>56</v>
+      </c>
+      <c r="B141" t="s">
+        <v>13</v>
+      </c>
+      <c r="C141" t="s">
+        <v>17</v>
+      </c>
+      <c r="D141" t="s">
+        <v>21</v>
+      </c>
+      <c r="E141">
+        <v>185.142</v>
+      </c>
+      <c r="F141">
+        <v>1116407.805381272</v>
+      </c>
+      <c r="G141">
+        <v>4841555.891619004</v>
+      </c>
+      <c r="H141">
+        <v>3986193.915151654</v>
+      </c>
+      <c r="I141">
+        <v>1116343.083590954</v>
+      </c>
+      <c r="J141">
+        <v>4841622.414310607</v>
+      </c>
+      <c r="K141">
+        <v>3986398.896339644</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142">
+        <v>56</v>
+      </c>
+      <c r="B142" t="s">
+        <v>13</v>
+      </c>
+      <c r="C142" t="s">
+        <v>17</v>
+      </c>
+      <c r="D142" t="s">
+        <v>21</v>
+      </c>
+      <c r="E142">
+        <v>186.142</v>
+      </c>
+      <c r="F142">
+        <v>1116406.904000636</v>
+      </c>
+      <c r="G142">
+        <v>4841572.404445019</v>
+      </c>
+      <c r="H142">
+        <v>3986205.211446843</v>
+      </c>
+      <c r="I142">
+        <v>1116409.172353389</v>
+      </c>
+      <c r="J142">
+        <v>4841573.762675726</v>
+      </c>
+      <c r="K142">
+        <v>3986202.7864396</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143">
+        <v>56</v>
+      </c>
+      <c r="B143" t="s">
+        <v>13</v>
+      </c>
+      <c r="C143" t="s">
+        <v>17</v>
+      </c>
+      <c r="D143" t="s">
+        <v>21</v>
+      </c>
+      <c r="E143">
+        <v>187.142</v>
+      </c>
+      <c r="F143">
+        <v>1116406.051296957</v>
+      </c>
+      <c r="G143">
+        <v>4841588.917271034</v>
+      </c>
+      <c r="H143">
+        <v>3986216.097778605</v>
+      </c>
+      <c r="I143">
+        <v>1116476.888490798</v>
+      </c>
+      <c r="J143">
+        <v>4841525.111040844</v>
+      </c>
+      <c r="K143">
+        <v>3985991.527872004</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144">
+        <v>56</v>
+      </c>
+      <c r="B144" t="s">
+        <v>13</v>
+      </c>
+      <c r="C144" t="s">
+        <v>17</v>
+      </c>
+      <c r="D144" t="s">
+        <v>21</v>
+      </c>
+      <c r="E144">
+        <v>188.142</v>
+      </c>
+      <c r="F144">
+        <v>1116405.243042805</v>
+      </c>
+      <c r="G144">
+        <v>4841605.430097048</v>
+      </c>
+      <c r="H144">
+        <v>3986226.602864433</v>
+      </c>
+      <c r="I144">
+        <v>1116546.272075794</v>
+      </c>
+      <c r="J144">
+        <v>4841476.459405961</v>
+      </c>
+      <c r="K144">
+        <v>3985765.120636856</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145">
+        <v>56</v>
+      </c>
+      <c r="B145" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145" t="s">
+        <v>17</v>
+      </c>
+      <c r="D145" t="s">
+        <v>21</v>
+      </c>
+      <c r="E145">
+        <v>189.142</v>
+      </c>
+      <c r="F145">
+        <v>1116404.475507326</v>
+      </c>
+      <c r="G145">
+        <v>4841621.942923063</v>
+      </c>
+      <c r="H145">
+        <v>3986236.752506201</v>
+      </c>
+      <c r="I145">
+        <v>1116617.364167738</v>
+      </c>
+      <c r="J145">
+        <v>4841427.807771079</v>
+      </c>
+      <c r="K145">
+        <v>3985523.564734156</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146">
+        <v>56</v>
+      </c>
+      <c r="B146" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146" t="s">
+        <v>17</v>
+      </c>
+      <c r="D146" t="s">
+        <v>21</v>
+      </c>
+      <c r="E146">
+        <v>190.142</v>
+      </c>
+      <c r="F146">
+        <v>1116403.745383705</v>
+      </c>
+      <c r="G146">
+        <v>4841638.455749079</v>
+      </c>
+      <c r="H146">
+        <v>3986246.569971975</v>
+      </c>
+      <c r="I146">
+        <v>1116690.206837043</v>
+      </c>
+      <c r="J146">
+        <v>4841379.156136197</v>
+      </c>
+      <c r="K146">
+        <v>3985266.860163904</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147">
+        <v>56</v>
+      </c>
+      <c r="B147" t="s">
+        <v>13</v>
+      </c>
+      <c r="C147" t="s">
+        <v>17</v>
+      </c>
+      <c r="D147" t="s">
+        <v>21</v>
+      </c>
+      <c r="E147">
+        <v>191.142</v>
+      </c>
+      <c r="F147">
+        <v>1116403.049729162</v>
+      </c>
+      <c r="G147">
+        <v>4841654.968575093</v>
+      </c>
+      <c r="H147">
+        <v>3986256.076317287</v>
+      </c>
+      <c r="I147">
+        <v>1116764.843190066</v>
+      </c>
+      <c r="J147">
+        <v>4841330.504501315</v>
+      </c>
+      <c r="K147">
+        <v>3984995.0069261</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148">
+        <v>56</v>
+      </c>
+      <c r="B148" t="s">
+        <v>13</v>
+      </c>
+      <c r="C148" t="s">
+        <v>17</v>
+      </c>
+      <c r="D148" t="s">
+        <v>21</v>
+      </c>
+      <c r="E148">
+        <v>192.142</v>
+      </c>
+      <c r="F148">
+        <v>1116402.385915017</v>
+      </c>
+      <c r="G148">
+        <v>4841671.481401108</v>
+      </c>
+      <c r="H148">
+        <v>3986265.290657055</v>
+      </c>
+      <c r="I148">
+        <v>1116841.317394617</v>
+      </c>
+      <c r="J148">
+        <v>4841281.852866434</v>
+      </c>
+      <c r="K148">
+        <v>3984708.005020744</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149">
+        <v>56</v>
+      </c>
+      <c r="B149" t="s">
+        <v>13</v>
+      </c>
+      <c r="C149" t="s">
+        <v>17</v>
+      </c>
+      <c r="D149" t="s">
+        <v>21</v>
+      </c>
+      <c r="E149">
+        <v>193.142</v>
+      </c>
+      <c r="F149">
+        <v>1116401.751584866</v>
+      </c>
+      <c r="G149">
+        <v>4841687.994227123</v>
+      </c>
+      <c r="H149">
+        <v>3986274.230396973</v>
+      </c>
+      <c r="I149">
+        <v>1116919.674706101</v>
+      </c>
+      <c r="J149">
+        <v>4841233.20123155</v>
+      </c>
+      <c r="K149">
+        <v>3984405.854447837</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150">
+        <v>56</v>
+      </c>
+      <c r="B150" t="s">
+        <v>13</v>
+      </c>
+      <c r="C150" t="s">
+        <v>17</v>
+      </c>
+      <c r="D150" t="s">
+        <v>21</v>
+      </c>
+      <c r="E150">
+        <v>194.142</v>
+      </c>
+      <c r="F150">
+        <v>1116401.144619379</v>
+      </c>
+      <c r="G150">
+        <v>4841704.507053137</v>
+      </c>
+      <c r="H150">
+        <v>3986282.911431406</v>
+      </c>
+      <c r="I150">
+        <v>1116999.961494292</v>
+      </c>
+      <c r="J150">
+        <v>4841184.549596668</v>
+      </c>
+      <c r="K150">
+        <v>3984088.555207376</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151">
+        <v>56</v>
+      </c>
+      <c r="B151" t="s">
+        <v>13</v>
+      </c>
+      <c r="C151" t="s">
+        <v>17</v>
+      </c>
+      <c r="D151" t="s">
+        <v>21</v>
+      </c>
+      <c r="E151">
+        <v>195.142</v>
+      </c>
+      <c r="F151">
+        <v>1116400.563106489</v>
+      </c>
+      <c r="G151">
+        <v>4841721.019879152</v>
+      </c>
+      <c r="H151">
+        <v>3986291.348313454</v>
+      </c>
+      <c r="I151">
+        <v>1117082.22527078</v>
+      </c>
+      <c r="J151">
+        <v>4841135.897961787</v>
+      </c>
+      <c r="K151">
+        <v>3983756.107299364</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152">
+        <v>56</v>
+      </c>
+      <c r="B152" t="s">
+        <v>13</v>
+      </c>
+      <c r="C152" t="s">
+        <v>17</v>
+      </c>
+      <c r="D152" t="s">
+        <v>21</v>
+      </c>
+      <c r="E152">
+        <v>196.142</v>
+      </c>
+      <c r="F152">
+        <v>1116400.005316053</v>
+      </c>
+      <c r="G152">
+        <v>4841737.532705166</v>
+      </c>
+      <c r="H152">
+        <v>3986299.554401739</v>
+      </c>
+      <c r="I152">
+        <v>1117166.514717083</v>
+      </c>
+      <c r="J152">
+        <v>4841087.246326904</v>
+      </c>
+      <c r="K152">
+        <v>3983408.5107238</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153">
+        <v>56</v>
+      </c>
+      <c r="B153" t="s">
+        <v>13</v>
+      </c>
+      <c r="C153" t="s">
+        <v>17</v>
+      </c>
+      <c r="D153" t="s">
+        <v>21</v>
+      </c>
+      <c r="E153">
+        <v>197.142</v>
+      </c>
+      <c r="F153">
+        <v>1116399.469678182</v>
+      </c>
+      <c r="G153">
+        <v>4841754.045531182</v>
+      </c>
+      <c r="H153">
+        <v>3986307.541987654</v>
+      </c>
+      <c r="I153">
+        <v>1117252.879713457</v>
+      </c>
+      <c r="J153">
+        <v>4841038.594692022</v>
+      </c>
+      <c r="K153">
+        <v>3983045.765480684</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154">
+        <v>56</v>
+      </c>
+      <c r="B154" t="s">
+        <v>13</v>
+      </c>
+      <c r="C154" t="s">
+        <v>17</v>
+      </c>
+      <c r="D154" t="s">
+        <v>21</v>
+      </c>
+      <c r="E154">
+        <v>198.142</v>
+      </c>
+      <c r="F154">
+        <v>1116398.954764662</v>
+      </c>
+      <c r="G154">
+        <v>4841770.558357197</v>
+      </c>
+      <c r="H154">
+        <v>3986315.322406104</v>
+      </c>
+      <c r="I154">
+        <v>1117341.371368411</v>
+      </c>
+      <c r="J154">
+        <v>4840989.94305714</v>
+      </c>
+      <c r="K154">
+        <v>3982667.871570016</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155">
+        <v>56</v>
+      </c>
+      <c r="B155" t="s">
+        <v>13</v>
+      </c>
+      <c r="C155" t="s">
+        <v>17</v>
+      </c>
+      <c r="D155" t="s">
+        <v>21</v>
+      </c>
+      <c r="E155">
+        <v>199.142</v>
+      </c>
+      <c r="F155">
+        <v>1116398.459272922</v>
+      </c>
+      <c r="G155">
+        <v>4841787.071183211</v>
+      </c>
+      <c r="H155">
+        <v>3986322.90613224</v>
+      </c>
+      <c r="I155">
+        <v>1117432.042048958</v>
+      </c>
+      <c r="J155">
+        <v>4840941.291422258</v>
+      </c>
+      <c r="K155">
+        <v>3982274.828991796</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156">
+        <v>56</v>
+      </c>
+      <c r="B156" t="s">
+        <v>13</v>
+      </c>
+      <c r="C156" t="s">
+        <v>17</v>
+      </c>
+      <c r="D156" t="s">
+        <v>21</v>
+      </c>
+      <c r="E156">
+        <v>200.142</v>
+      </c>
+      <c r="F156">
+        <v>1116397.982012181</v>
+      </c>
+      <c r="G156">
+        <v>4841803.584009225</v>
+      </c>
+      <c r="H156">
+        <v>3986330.302866274</v>
+      </c>
+      <c r="I156">
+        <v>1117524.945411598</v>
+      </c>
+      <c r="J156">
+        <v>4840892.639787375</v>
+      </c>
+      <c r="K156">
+        <v>3981866.637746023</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157">
+        <v>56</v>
+      </c>
+      <c r="B157" t="s">
+        <v>13</v>
+      </c>
+      <c r="C157" t="s">
+        <v>17</v>
+      </c>
+      <c r="D157" t="s">
+        <v>21</v>
+      </c>
+      <c r="E157">
+        <v>201.142</v>
+      </c>
+      <c r="F157">
+        <v>1116397.521891405</v>
+      </c>
+      <c r="G157">
+        <v>4841820.096835241</v>
+      </c>
+      <c r="H157">
+        <v>3986337.521608075</v>
+      </c>
+      <c r="I157">
+        <v>1117620.136434074</v>
+      </c>
+      <c r="J157">
+        <v>4840843.988152494</v>
+      </c>
+      <c r="K157">
+        <v>3981443.297832699</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158">
+        <v>56</v>
+      </c>
+      <c r="B158" t="s">
+        <v>13</v>
+      </c>
+      <c r="C158" t="s">
+        <v>17</v>
+      </c>
+      <c r="D158" t="s">
+        <v>21</v>
+      </c>
+      <c r="E158">
+        <v>202.142</v>
+      </c>
+      <c r="F158">
+        <v>1116397.077908821</v>
+      </c>
+      <c r="G158">
+        <v>4841836.609661255</v>
+      </c>
+      <c r="H158">
+        <v>3986344.570723015</v>
+      </c>
+      <c r="I158">
+        <v>1117717.671447904</v>
+      </c>
+      <c r="J158">
+        <v>4840795.336517612</v>
+      </c>
+      <c r="K158">
+        <v>3981004.809251823</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159">
+        <v>56</v>
+      </c>
+      <c r="B159" t="s">
+        <v>13</v>
+      </c>
+      <c r="C159" t="s">
+        <v>17</v>
+      </c>
+      <c r="D159" t="s">
+        <v>21</v>
+      </c>
+      <c r="E159">
+        <v>203.142</v>
+      </c>
+      <c r="F159">
+        <v>1116396.649142741</v>
+      </c>
+      <c r="G159">
+        <v>4841853.12248727</v>
+      </c>
+      <c r="H159">
+        <v>3986351.458000238</v>
+      </c>
+      <c r="I159">
+        <v>1117817.608171719</v>
+      </c>
+      <c r="J159">
+        <v>4840746.684882729</v>
+      </c>
+      <c r="K159">
+        <v>3980551.172003394</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160">
+        <v>56</v>
+      </c>
+      <c r="B160" t="s">
+        <v>13</v>
+      </c>
+      <c r="C160" t="s">
+        <v>17</v>
+      </c>
+      <c r="D160" t="s">
+        <v>21</v>
+      </c>
+      <c r="E160">
+        <v>204.142</v>
+      </c>
+      <c r="F160">
+        <v>1116396.234743515</v>
+      </c>
+      <c r="G160">
+        <v>4841869.635313286</v>
+      </c>
+      <c r="H160">
+        <v>3986358.190704399</v>
+      </c>
+      <c r="I160">
+        <v>1117920.005745417</v>
+      </c>
+      <c r="J160">
+        <v>4840698.033247847</v>
+      </c>
+      <c r="K160">
+        <v>3980082.386087414</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161">
+        <v>56</v>
+      </c>
+      <c r="B161" t="s">
+        <v>14</v>
+      </c>
+      <c r="C161" t="s">
+        <v>18</v>
+      </c>
+      <c r="D161" t="s">
+        <v>22</v>
+      </c>
+      <c r="E161">
+        <v>152.142</v>
+      </c>
+      <c r="F161">
+        <v>1116580.365068383</v>
+      </c>
+      <c r="G161">
+        <v>4841122.0050308</v>
+      </c>
+      <c r="H161">
+        <v>3985228.591541173</v>
+      </c>
+      <c r="I161">
+        <v>1114860.16985566</v>
+      </c>
+      <c r="J161">
+        <v>4843235.173995588</v>
+      </c>
+      <c r="K161">
+        <v>3984370.982864561</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162">
+        <v>56</v>
+      </c>
+      <c r="B162" t="s">
+        <v>14</v>
+      </c>
+      <c r="C162" t="s">
+        <v>18</v>
+      </c>
+      <c r="D162" t="s">
+        <v>22</v>
+      </c>
+      <c r="E162">
+        <v>153.142</v>
+      </c>
+      <c r="F162">
+        <v>1116580.365068383</v>
+      </c>
+      <c r="G162">
+        <v>4841122.0050308</v>
+      </c>
+      <c r="H162">
+        <v>3985228.591541173</v>
+      </c>
+      <c r="I162">
+        <v>1114889.783820578</v>
+      </c>
+      <c r="J162">
+        <v>4843186.52228782</v>
+      </c>
+      <c r="K162">
+        <v>3984674.778906989</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163">
+        <v>56</v>
+      </c>
+      <c r="B163" t="s">
+        <v>14</v>
+      </c>
+      <c r="C163" t="s">
+        <v>18</v>
+      </c>
+      <c r="D163" t="s">
+        <v>22</v>
+      </c>
+      <c r="E163">
+        <v>154.142</v>
+      </c>
+      <c r="F163">
+        <v>1116580.365068383</v>
+      </c>
+      <c r="G163">
+        <v>4841122.0050308</v>
+      </c>
+      <c r="H163">
+        <v>3985228.591541173</v>
+      </c>
+      <c r="I163">
+        <v>1114920.127002138</v>
+      </c>
+      <c r="J163">
+        <v>4843137.870580052</v>
+      </c>
+      <c r="K163">
+        <v>3984963.426286191</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164">
+        <v>56</v>
+      </c>
+      <c r="B164" t="s">
+        <v>14</v>
+      </c>
+      <c r="C164" t="s">
+        <v>18</v>
+      </c>
+      <c r="D164" t="s">
+        <v>22</v>
+      </c>
+      <c r="E164">
+        <v>155.142</v>
+      </c>
+      <c r="F164">
+        <v>1116580.365068383</v>
+      </c>
+      <c r="G164">
+        <v>4841122.0050308</v>
+      </c>
+      <c r="H164">
+        <v>3985228.591541173</v>
+      </c>
+      <c r="I164">
+        <v>1114951.217356629</v>
+      </c>
+      <c r="J164">
+        <v>4843089.218872284</v>
+      </c>
+      <c r="K164">
+        <v>3985236.925002166</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165">
+        <v>56</v>
+      </c>
+      <c r="B165" t="s">
+        <v>14</v>
+      </c>
+      <c r="C165" t="s">
+        <v>18</v>
+      </c>
+      <c r="D165" t="s">
+        <v>22</v>
+      </c>
+      <c r="E165">
+        <v>156.142</v>
+      </c>
+      <c r="F165">
+        <v>1116580.365068383</v>
+      </c>
+      <c r="G165">
+        <v>4841122.0050308</v>
+      </c>
+      <c r="H165">
+        <v>3985228.591541173</v>
+      </c>
+      <c r="I165">
+        <v>1114983.073282497</v>
+      </c>
+      <c r="J165">
+        <v>4843040.567164516</v>
+      </c>
+      <c r="K165">
+        <v>3985495.275054915</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166">
+        <v>56</v>
+      </c>
+      <c r="B166" t="s">
+        <v>14</v>
+      </c>
+      <c r="C166" t="s">
+        <v>18</v>
+      </c>
+      <c r="D166" t="s">
+        <v>22</v>
+      </c>
+      <c r="E166">
+        <v>157.142</v>
+      </c>
+      <c r="F166">
+        <v>1116580.365068383</v>
+      </c>
+      <c r="G166">
+        <v>4841122.0050308</v>
+      </c>
+      <c r="H166">
+        <v>3985228.591541173</v>
+      </c>
+      <c r="I166">
+        <v>1115015.713631233</v>
+      </c>
+      <c r="J166">
+        <v>4842991.915456749</v>
+      </c>
+      <c r="K166">
+        <v>3985738.476444437</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167">
+        <v>56</v>
+      </c>
+      <c r="B167" t="s">
+        <v>14</v>
+      </c>
+      <c r="C167" t="s">
+        <v>18</v>
+      </c>
+      <c r="D167" t="s">
+        <v>22</v>
+      </c>
+      <c r="E167">
+        <v>158.142</v>
+      </c>
+      <c r="F167">
+        <v>1116580.365068383</v>
+      </c>
+      <c r="G167">
+        <v>4841122.0050308</v>
+      </c>
+      <c r="H167">
+        <v>3985228.591541173</v>
+      </c>
+      <c r="I167">
+        <v>1115049.157718527</v>
+      </c>
+      <c r="J167">
+        <v>4842943.263748979</v>
+      </c>
+      <c r="K167">
+        <v>3985966.529170732</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168">
+        <v>56</v>
+      </c>
+      <c r="B168" t="s">
+        <v>14</v>
+      </c>
+      <c r="C168" t="s">
+        <v>18</v>
+      </c>
+      <c r="D168" t="s">
+        <v>22</v>
+      </c>
+      <c r="E168">
+        <v>159.142</v>
+      </c>
+      <c r="F168">
+        <v>1116580.365068383</v>
+      </c>
+      <c r="G168">
+        <v>4841122.0050308</v>
+      </c>
+      <c r="H168">
+        <v>3985228.591541173</v>
+      </c>
+      <c r="I168">
+        <v>1115083.425335703</v>
+      </c>
+      <c r="J168">
+        <v>4842894.612041212</v>
+      </c>
+      <c r="K168">
+        <v>3986179.433233802</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169">
+        <v>56</v>
+      </c>
+      <c r="B169" t="s">
+        <v>14</v>
+      </c>
+      <c r="C169" t="s">
+        <v>18</v>
+      </c>
+      <c r="D169" t="s">
+        <v>22</v>
+      </c>
+      <c r="E169">
+        <v>160.142</v>
+      </c>
+      <c r="F169">
+        <v>1116580.365068383</v>
+      </c>
+      <c r="G169">
+        <v>4841138.517841284</v>
+      </c>
+      <c r="H169">
+        <v>3985228.591541173</v>
+      </c>
+      <c r="I169">
+        <v>1115118.536761426</v>
+      </c>
+      <c r="J169">
+        <v>4842845.960333443</v>
+      </c>
+      <c r="K169">
+        <v>3986377.188633644</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170">
+        <v>56</v>
+      </c>
+      <c r="B170" t="s">
+        <v>14</v>
+      </c>
+      <c r="C170" t="s">
+        <v>18</v>
+      </c>
+      <c r="D170" t="s">
+        <v>22</v>
+      </c>
+      <c r="E170">
+        <v>161.142</v>
+      </c>
+      <c r="F170">
+        <v>1116531.684423468</v>
+      </c>
+      <c r="G170">
+        <v>4841155.030651769</v>
+      </c>
+      <c r="H170">
+        <v>3985427.845961107</v>
+      </c>
+      <c r="I170">
+        <v>1115154.512773706</v>
+      </c>
+      <c r="J170">
+        <v>4842797.308625676</v>
+      </c>
+      <c r="K170">
+        <v>3986559.79537026</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171">
+        <v>56</v>
+      </c>
+      <c r="B171" t="s">
+        <v>14</v>
+      </c>
+      <c r="C171" t="s">
+        <v>18</v>
+      </c>
+      <c r="D171" t="s">
+        <v>22</v>
+      </c>
+      <c r="E171">
+        <v>162.142</v>
+      </c>
+      <c r="F171">
+        <v>1116503.086986665</v>
+      </c>
+      <c r="G171">
+        <v>4841171.543462253</v>
+      </c>
+      <c r="H171">
+        <v>3985546.532083877</v>
+      </c>
+      <c r="I171">
+        <v>1115191.374662191</v>
+      </c>
+      <c r="J171">
+        <v>4842748.656917907</v>
+      </c>
+      <c r="K171">
+        <v>3986727.25344365</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172">
+        <v>56</v>
+      </c>
+      <c r="B172" t="s">
+        <v>14</v>
+      </c>
+      <c r="C172" t="s">
+        <v>18</v>
+      </c>
+      <c r="D172" t="s">
+        <v>22</v>
+      </c>
+      <c r="E172">
+        <v>163.142</v>
+      </c>
+      <c r="F172">
+        <v>1116485.034186541</v>
+      </c>
+      <c r="G172">
+        <v>4841188.056272738</v>
+      </c>
+      <c r="H172">
+        <v>3985631.349034132</v>
+      </c>
+      <c r="I172">
+        <v>1115229.144240767</v>
+      </c>
+      <c r="J172">
+        <v>4842700.005210139</v>
+      </c>
+      <c r="K172">
+        <v>3986879.562853812</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173">
+        <v>56</v>
+      </c>
+      <c r="B173" t="s">
+        <v>14</v>
+      </c>
+      <c r="C173" t="s">
+        <v>18</v>
+      </c>
+      <c r="D173" t="s">
+        <v>22</v>
+      </c>
+      <c r="E173">
+        <v>164.142</v>
+      </c>
+      <c r="F173">
+        <v>1116472.444237015</v>
+      </c>
+      <c r="G173">
+        <v>4841204.569083221</v>
+      </c>
+      <c r="H173">
+        <v>3985697.395947855</v>
+      </c>
+      <c r="I173">
+        <v>1115267.843860468</v>
+      </c>
+      <c r="J173">
+        <v>4842651.353502371</v>
+      </c>
+      <c r="K173">
+        <v>3987016.723600749</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174">
+        <v>56</v>
+      </c>
+      <c r="B174" t="s">
+        <v>14</v>
+      </c>
+      <c r="C174" t="s">
+        <v>18</v>
+      </c>
+      <c r="D174" t="s">
+        <v>22</v>
+      </c>
+      <c r="E174">
+        <v>165.142</v>
+      </c>
+      <c r="F174">
+        <v>1116463.051757643</v>
+      </c>
+      <c r="G174">
+        <v>4841221.081893706</v>
+      </c>
+      <c r="H174">
+        <v>3985751.493493261</v>
+      </c>
+      <c r="I174">
+        <v>1115307.496422702</v>
+      </c>
+      <c r="J174">
+        <v>4842602.701794604</v>
+      </c>
+      <c r="K174">
+        <v>3987138.735684459</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="A175">
+        <v>56</v>
+      </c>
+      <c r="B175" t="s">
+        <v>14</v>
+      </c>
+      <c r="C175" t="s">
+        <v>18</v>
+      </c>
+      <c r="D175" t="s">
+        <v>22</v>
+      </c>
+      <c r="E175">
+        <v>166.142</v>
+      </c>
+      <c r="F175">
+        <v>1116455.708150394</v>
+      </c>
+      <c r="G175">
+        <v>4841237.59470419</v>
+      </c>
+      <c r="H175">
+        <v>3985797.310165289</v>
+      </c>
+      <c r="I175">
+        <v>1115348.125392801</v>
+      </c>
+      <c r="J175">
+        <v>4842554.050086834</v>
+      </c>
+      <c r="K175">
+        <v>3987245.599104942</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176">
+        <v>56</v>
+      </c>
+      <c r="B176" t="s">
+        <v>14</v>
+      </c>
+      <c r="C176" t="s">
+        <v>18</v>
+      </c>
+      <c r="D176" t="s">
+        <v>22</v>
+      </c>
+      <c r="E176">
+        <v>167.142</v>
+      </c>
+      <c r="F176">
+        <v>1116449.766637425</v>
+      </c>
+      <c r="G176">
+        <v>4841254.107514675</v>
+      </c>
+      <c r="H176">
+        <v>3985837.047783814</v>
+      </c>
+      <c r="I176">
+        <v>1115389.754813911</v>
+      </c>
+      <c r="J176">
+        <v>4842505.398379067</v>
+      </c>
+      <c r="K176">
+        <v>3987337.313862198</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177">
+        <v>56</v>
+      </c>
+      <c r="B177" t="s">
+        <v>14</v>
+      </c>
+      <c r="C177" t="s">
+        <v>18</v>
+      </c>
+      <c r="D177" t="s">
+        <v>22</v>
+      </c>
+      <c r="E177">
+        <v>168.142</v>
+      </c>
+      <c r="F177">
+        <v>1116444.833064581</v>
+      </c>
+      <c r="G177">
+        <v>4841270.620325159</v>
+      </c>
+      <c r="H177">
+        <v>3985872.132168788</v>
+      </c>
+      <c r="I177">
+        <v>1115432.409321217</v>
+      </c>
+      <c r="J177">
+        <v>4842456.746671299</v>
+      </c>
+      <c r="K177">
+        <v>3987413.879956229</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="A178">
+        <v>56</v>
+      </c>
+      <c r="B178" t="s">
+        <v>14</v>
+      </c>
+      <c r="C178" t="s">
+        <v>18</v>
+      </c>
+      <c r="D178" t="s">
+        <v>22</v>
+      </c>
+      <c r="E178">
+        <v>169.142</v>
+      </c>
+      <c r="F178">
+        <v>1116440.6522328</v>
+      </c>
+      <c r="G178">
+        <v>4841287.133135643</v>
+      </c>
+      <c r="H178">
+        <v>3985903.53975333</v>
+      </c>
+      <c r="I178">
+        <v>1115476.114156524</v>
+      </c>
+      <c r="J178">
+        <v>4842408.094963531</v>
+      </c>
+      <c r="K178">
+        <v>3987475.297387033</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
+      <c r="A179">
+        <v>56</v>
+      </c>
+      <c r="B179" t="s">
+        <v>14</v>
+      </c>
+      <c r="C179" t="s">
+        <v>18</v>
+      </c>
+      <c r="D179" t="s">
+        <v>22</v>
+      </c>
+      <c r="E179">
+        <v>170.142</v>
+      </c>
+      <c r="F179">
+        <v>1116437.050854105</v>
+      </c>
+      <c r="G179">
+        <v>4841303.645946127</v>
+      </c>
+      <c r="H179">
+        <v>3985931.968605573</v>
+      </c>
+      <c r="I179">
+        <v>1115520.895183193</v>
+      </c>
+      <c r="J179">
+        <v>4842359.443255763</v>
+      </c>
+      <c r="K179">
+        <v>3987521.56615461</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
+      <c r="A180">
+        <v>56</v>
+      </c>
+      <c r="B180" t="s">
+        <v>14</v>
+      </c>
+      <c r="C180" t="s">
+        <v>18</v>
+      </c>
+      <c r="D180" t="s">
+        <v>22</v>
+      </c>
+      <c r="E180">
+        <v>171.142</v>
+      </c>
+      <c r="F180">
+        <v>1116433.906664415</v>
+      </c>
+      <c r="G180">
+        <v>4841320.158756613</v>
+      </c>
+      <c r="H180">
+        <v>3985957.93511603</v>
+      </c>
+      <c r="I180">
+        <v>1115566.778901446</v>
+      </c>
+      <c r="J180">
+        <v>4842310.791547994</v>
+      </c>
+      <c r="K180">
+        <v>3987552.686258961</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
+      <c r="A181">
+        <v>56</v>
+      </c>
+      <c r="B181" t="s">
+        <v>14</v>
+      </c>
+      <c r="C181" t="s">
+        <v>18</v>
+      </c>
+      <c r="D181" t="s">
+        <v>22</v>
+      </c>
+      <c r="E181">
+        <v>172.142</v>
+      </c>
+      <c r="F181">
+        <v>1116431.13064209</v>
+      </c>
+      <c r="G181">
+        <v>4841336.671567096</v>
+      </c>
+      <c r="H181">
+        <v>3985981.832039493</v>
+      </c>
+      <c r="I181">
+        <v>1115613.792464049</v>
+      </c>
+      <c r="J181">
+        <v>4842262.139840227</v>
+      </c>
+      <c r="K181">
+        <v>3987568.657700085</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
+      <c r="A182">
+        <v>56</v>
+      </c>
+      <c r="B182" t="s">
+        <v>14</v>
+      </c>
+      <c r="C182" t="s">
+        <v>18</v>
+      </c>
+      <c r="D182" t="s">
+        <v>22</v>
+      </c>
+      <c r="E182">
+        <v>173.142</v>
+      </c>
+      <c r="F182">
+        <v>1116428.65624313</v>
+      </c>
+      <c r="G182">
+        <v>4841353.184377581</v>
+      </c>
+      <c r="H182">
+        <v>3986003.965062782</v>
+      </c>
+      <c r="I182">
+        <v>1115661.963692378</v>
+      </c>
+      <c r="J182">
+        <v>4842213.488132459</v>
+      </c>
+      <c r="K182">
+        <v>3987569.480477982</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="A183">
+        <v>56</v>
+      </c>
+      <c r="B183" t="s">
+        <v>14</v>
+      </c>
+      <c r="C183" t="s">
+        <v>18</v>
+      </c>
+      <c r="D183" t="s">
+        <v>22</v>
+      </c>
+      <c r="E183">
+        <v>174.142</v>
+      </c>
+      <c r="F183">
+        <v>1116426.432604886</v>
+      </c>
+      <c r="G183">
+        <v>4841369.697188065</v>
+      </c>
+      <c r="H183">
+        <v>3986024.576778855</v>
+      </c>
+      <c r="I183">
+        <v>1115711.321092889</v>
+      </c>
+      <c r="J183">
+        <v>4842164.83642469</v>
+      </c>
+      <c r="K183">
+        <v>3987555.154592653</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
+      <c r="A184">
+        <v>56</v>
+      </c>
+      <c r="B184" t="s">
+        <v>14</v>
+      </c>
+      <c r="C184" t="s">
+        <v>18</v>
+      </c>
+      <c r="D184" t="s">
+        <v>22</v>
+      </c>
+      <c r="E184">
+        <v>175.142</v>
+      </c>
+      <c r="F184">
+        <v>1116424.420100126</v>
+      </c>
+      <c r="G184">
+        <v>4841386.209998549</v>
+      </c>
+      <c r="H184">
+        <v>3986043.862938136</v>
+      </c>
+      <c r="I184">
+        <v>1115761.89387398</v>
+      </c>
+      <c r="J184">
+        <v>4842116.184716922</v>
+      </c>
+      <c r="K184">
+        <v>3987525.680044097</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
+      <c r="A185">
+        <v>56</v>
+      </c>
+      <c r="B185" t="s">
+        <v>14</v>
+      </c>
+      <c r="C185" t="s">
+        <v>18</v>
+      </c>
+      <c r="D185" t="s">
+        <v>22</v>
+      </c>
+      <c r="E185">
+        <v>176.142</v>
+      </c>
+      <c r="F185">
+        <v>1116422.587338764</v>
+      </c>
+      <c r="G185">
+        <v>4841402.722809033</v>
+      </c>
+      <c r="H185">
+        <v>3986061.98378251</v>
+      </c>
+      <c r="I185">
+        <v>1115813.711963278</v>
+      </c>
+      <c r="J185">
+        <v>4842067.533009155</v>
+      </c>
+      <c r="K185">
+        <v>3987481.056832315</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
+      <c r="A186">
+        <v>56</v>
+      </c>
+      <c r="B186" t="s">
+        <v>14</v>
+      </c>
+      <c r="C186" t="s">
+        <v>18</v>
+      </c>
+      <c r="D186" t="s">
+        <v>22</v>
+      </c>
+      <c r="E186">
+        <v>177.142</v>
+      </c>
+      <c r="F186">
+        <v>1116420.909091842</v>
+      </c>
+      <c r="G186">
+        <v>4841419.235619518</v>
+      </c>
+      <c r="H186">
+        <v>3986079.072146016</v>
+      </c>
+      <c r="I186">
+        <v>1115866.806025354</v>
+      </c>
+      <c r="J186">
+        <v>4842018.881301385</v>
+      </c>
+      <c r="K186">
+        <v>3987421.284957306</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
+      <c r="A187">
+        <v>56</v>
+      </c>
+      <c r="B187" t="s">
+        <v>14</v>
+      </c>
+      <c r="C187" t="s">
+        <v>18</v>
+      </c>
+      <c r="D187" t="s">
+        <v>22</v>
+      </c>
+      <c r="E187">
+        <v>178.142</v>
+      </c>
+      <c r="F187">
+        <v>1116419.364820556</v>
+      </c>
+      <c r="G187">
+        <v>4841435.748430002</v>
+      </c>
+      <c r="H187">
+        <v>3986095.239369605</v>
+      </c>
+      <c r="I187">
+        <v>1115921.207479863</v>
+      </c>
+      <c r="J187">
+        <v>4841970.229593618</v>
+      </c>
+      <c r="K187">
+        <v>3987346.364419071</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
+      <c r="A188">
+        <v>56</v>
+      </c>
+      <c r="B188" t="s">
+        <v>14</v>
+      </c>
+      <c r="C188" t="s">
+        <v>18</v>
+      </c>
+      <c r="D188" t="s">
+        <v>22</v>
+      </c>
+      <c r="E188">
+        <v>179.142</v>
+      </c>
+      <c r="F188">
+        <v>1116417.937612578</v>
+      </c>
+      <c r="G188">
+        <v>4841452.261240487</v>
+      </c>
+      <c r="H188">
+        <v>3986110.579701696</v>
+      </c>
+      <c r="I188">
+        <v>1115976.948520141</v>
+      </c>
+      <c r="J188">
+        <v>4841921.577885849</v>
+      </c>
+      <c r="K188">
+        <v>3987256.29521761</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
+      <c r="A189">
+        <v>56</v>
+      </c>
+      <c r="B189" t="s">
+        <v>14</v>
+      </c>
+      <c r="C189" t="s">
+        <v>18</v>
+      </c>
+      <c r="D189" t="s">
+        <v>22</v>
+      </c>
+      <c r="E189">
+        <v>180.142</v>
+      </c>
+      <c r="F189">
+        <v>1116416.613398867</v>
+      </c>
+      <c r="G189">
+        <v>4841468.774050971</v>
+      </c>
+      <c r="H189">
+        <v>3986125.173627136</v>
+      </c>
+      <c r="I189">
+        <v>1116034.062132255</v>
+      </c>
+      <c r="J189">
+        <v>4841872.926178082</v>
+      </c>
+      <c r="K189">
+        <v>3987151.077352921</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
+      <c r="A190">
+        <v>56</v>
+      </c>
+      <c r="B190" t="s">
+        <v>14</v>
+      </c>
+      <c r="C190" t="s">
+        <v>18</v>
+      </c>
+      <c r="D190" t="s">
+        <v>22</v>
+      </c>
+      <c r="E190">
+        <v>181.142</v>
+      </c>
+      <c r="F190">
+        <v>1116415.380367618</v>
+      </c>
+      <c r="G190">
+        <v>4841485.286861455</v>
+      </c>
+      <c r="H190">
+        <v>3986139.090423211</v>
+      </c>
+      <c r="I190">
+        <v>1116092.582114524</v>
+      </c>
+      <c r="J190">
+        <v>4841824.274470313</v>
+      </c>
+      <c r="K190">
+        <v>3987030.710825006</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
+      <c r="A191">
+        <v>56</v>
+      </c>
+      <c r="B191" t="s">
+        <v>14</v>
+      </c>
+      <c r="C191" t="s">
+        <v>18</v>
+      </c>
+      <c r="D191" t="s">
+        <v>22</v>
+      </c>
+      <c r="E191">
+        <v>182.142</v>
+      </c>
+      <c r="F191">
+        <v>1116414.228519305</v>
+      </c>
+      <c r="G191">
+        <v>4841501.799671941</v>
+      </c>
+      <c r="H191">
+        <v>3986152.390148544</v>
+      </c>
+      <c r="I191">
+        <v>1116152.543097518</v>
+      </c>
+      <c r="J191">
+        <v>4841775.622762545</v>
+      </c>
+      <c r="K191">
+        <v>3986895.195633865</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
+      <c r="A192">
+        <v>56</v>
+      </c>
+      <c r="B192" t="s">
+        <v>14</v>
+      </c>
+      <c r="C192" t="s">
+        <v>18</v>
+      </c>
+      <c r="D192" t="s">
+        <v>22</v>
+      </c>
+      <c r="E192">
+        <v>183.142</v>
+      </c>
+      <c r="F192">
+        <v>1116413.149324367</v>
+      </c>
+      <c r="G192">
+        <v>4841518.312482424</v>
+      </c>
+      <c r="H192">
+        <v>3986165.125209488</v>
+      </c>
+      <c r="I192">
+        <v>1116213.980564556</v>
+      </c>
+      <c r="J192">
+        <v>4841726.971054778</v>
+      </c>
+      <c r="K192">
+        <v>3986744.531779497</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
+      <c r="A193">
+        <v>56</v>
+      </c>
+      <c r="B193" t="s">
+        <v>14</v>
+      </c>
+      <c r="C193" t="s">
+        <v>18</v>
+      </c>
+      <c r="D193" t="s">
+        <v>22</v>
+      </c>
+      <c r="E193">
+        <v>184.142</v>
+      </c>
+      <c r="F193">
+        <v>1116412.135456706</v>
+      </c>
+      <c r="G193">
+        <v>4841534.825292909</v>
+      </c>
+      <c r="H193">
+        <v>3986177.341607335</v>
+      </c>
+      <c r="I193">
+        <v>1116276.930872698</v>
+      </c>
+      <c r="J193">
+        <v>4841678.31934701</v>
+      </c>
+      <c r="K193">
+        <v>3986578.719261903</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
+      <c r="A194">
+        <v>56</v>
+      </c>
+      <c r="B194" t="s">
+        <v>14</v>
+      </c>
+      <c r="C194" t="s">
+        <v>18</v>
+      </c>
+      <c r="D194" t="s">
+        <v>22</v>
+      </c>
+      <c r="E194">
+        <v>185.142</v>
+      </c>
+      <c r="F194">
+        <v>1116411.180583924</v>
+      </c>
+      <c r="G194">
+        <v>4841551.338103392</v>
+      </c>
+      <c r="H194">
+        <v>3986189.079941354</v>
+      </c>
+      <c r="I194">
+        <v>1116341.431274265</v>
+      </c>
+      <c r="J194">
+        <v>4841629.667639241</v>
+      </c>
+      <c r="K194">
+        <v>3986397.758081082</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
+      <c r="A195">
+        <v>56</v>
+      </c>
+      <c r="B195" t="s">
+        <v>14</v>
+      </c>
+      <c r="C195" t="s">
+        <v>18</v>
+      </c>
+      <c r="D195" t="s">
+        <v>22</v>
+      </c>
+      <c r="E195">
+        <v>186.142</v>
+      </c>
+      <c r="F195">
+        <v>1116410.279200563</v>
+      </c>
+      <c r="G195">
+        <v>4841567.850913877</v>
+      </c>
+      <c r="H195">
+        <v>3986200.37622284</v>
+      </c>
+      <c r="I195">
+        <v>1116407.519938881</v>
+      </c>
+      <c r="J195">
+        <v>4841581.015931473</v>
+      </c>
+      <c r="K195">
+        <v>3986201.648237034</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
+      <c r="A196">
+        <v>56</v>
+      </c>
+      <c r="B196" t="s">
+        <v>14</v>
+      </c>
+      <c r="C196" t="s">
+        <v>18</v>
+      </c>
+      <c r="D196" t="s">
+        <v>22</v>
+      </c>
+      <c r="E196">
+        <v>187.142</v>
+      </c>
+      <c r="F196">
+        <v>1116409.426494306</v>
+      </c>
+      <c r="G196">
+        <v>4841584.363724362</v>
+      </c>
+      <c r="H196">
+        <v>3986211.262541398</v>
+      </c>
+      <c r="I196">
+        <v>1116475.235976062</v>
+      </c>
+      <c r="J196">
+        <v>4841532.364223706</v>
+      </c>
+      <c r="K196">
+        <v>3985990.38972976</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
+      <c r="A197">
+        <v>56</v>
+      </c>
+      <c r="B197" t="s">
+        <v>14</v>
+      </c>
+      <c r="C197" t="s">
+        <v>18</v>
+      </c>
+      <c r="D197" t="s">
+        <v>22</v>
+      </c>
+      <c r="E197">
+        <v>188.142</v>
+      </c>
+      <c r="F197">
+        <v>1116408.61823771</v>
+      </c>
+      <c r="G197">
+        <v>4841600.876534846</v>
+      </c>
+      <c r="H197">
+        <v>3986221.767614483</v>
+      </c>
+      <c r="I197">
+        <v>1116544.619458362</v>
+      </c>
+      <c r="J197">
+        <v>4841483.712515937</v>
+      </c>
+      <c r="K197">
+        <v>3985763.98255926</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
+      <c r="A198">
+        <v>56</v>
+      </c>
+      <c r="B198" t="s">
+        <v>14</v>
+      </c>
+      <c r="C198" t="s">
+        <v>18</v>
+      </c>
+      <c r="D198" t="s">
+        <v>22</v>
+      </c>
+      <c r="E198">
+        <v>189.142</v>
+      </c>
+      <c r="F198">
+        <v>1116407.850699911</v>
+      </c>
+      <c r="G198">
+        <v>4841617.38934533</v>
+      </c>
+      <c r="H198">
+        <v>3986231.91724394</v>
+      </c>
+      <c r="I198">
+        <v>1116615.711445082</v>
+      </c>
+      <c r="J198">
+        <v>4841435.060808169</v>
+      </c>
+      <c r="K198">
+        <v>3985522.426725532</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
+      <c r="A199">
+        <v>56</v>
+      </c>
+      <c r="B199" t="s">
+        <v>14</v>
+      </c>
+      <c r="C199" t="s">
+        <v>18</v>
+      </c>
+      <c r="D199" t="s">
+        <v>22</v>
+      </c>
+      <c r="E199">
+        <v>190.142</v>
+      </c>
+      <c r="F199">
+        <v>1116407.120574082</v>
+      </c>
+      <c r="G199">
+        <v>4841633.902155815</v>
+      </c>
+      <c r="H199">
+        <v>3986241.734697806</v>
+      </c>
+      <c r="I199">
+        <v>1116688.554006571</v>
+      </c>
+      <c r="J199">
+        <v>4841386.4091004</v>
+      </c>
+      <c r="K199">
+        <v>3985265.722228579</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
+      <c r="A200">
+        <v>56</v>
+      </c>
+      <c r="B200" t="s">
+        <v>14</v>
+      </c>
+      <c r="C200" t="s">
+        <v>18</v>
+      </c>
+      <c r="D200" t="s">
+        <v>22</v>
+      </c>
+      <c r="E200">
+        <v>191.142</v>
+      </c>
+      <c r="F200">
+        <v>1116406.424917437</v>
+      </c>
+      <c r="G200">
+        <v>4841650.414966298</v>
+      </c>
+      <c r="H200">
+        <v>3986251.241031586</v>
+      </c>
+      <c r="I200">
+        <v>1116763.190249123</v>
+      </c>
+      <c r="J200">
+        <v>4841337.757392633</v>
+      </c>
+      <c r="K200">
+        <v>3984993.869068399</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
+      <c r="A201">
+        <v>56</v>
+      </c>
+      <c r="B201" t="s">
+        <v>14</v>
+      </c>
+      <c r="C201" t="s">
+        <v>18</v>
+      </c>
+      <c r="D201" t="s">
+        <v>22</v>
+      </c>
+      <c r="E201">
+        <v>192.142</v>
+      </c>
+      <c r="F201">
+        <v>1116405.761101284</v>
+      </c>
+      <c r="G201">
+        <v>4841666.927776784</v>
+      </c>
+      <c r="H201">
+        <v>3986260.455360177</v>
+      </c>
+      <c r="I201">
+        <v>1116839.664340484</v>
+      </c>
+      <c r="J201">
+        <v>4841289.105684865</v>
+      </c>
+      <c r="K201">
+        <v>3984706.867244991</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
+      <c r="A202">
+        <v>56</v>
+      </c>
+      <c r="B202" t="s">
+        <v>14</v>
+      </c>
+      <c r="C202" t="s">
+        <v>18</v>
+      </c>
+      <c r="D202" t="s">
+        <v>22</v>
+      </c>
+      <c r="E202">
+        <v>193.142</v>
+      </c>
+      <c r="F202">
+        <v>1116405.126769216</v>
+      </c>
+      <c r="G202">
+        <v>4841683.440587268</v>
+      </c>
+      <c r="H202">
+        <v>3986269.395089251</v>
+      </c>
+      <c r="I202">
+        <v>1116918.02153599</v>
+      </c>
+      <c r="J202">
+        <v>4841240.453977096</v>
+      </c>
+      <c r="K202">
+        <v>3984404.716758358</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
+      <c r="A203">
+        <v>56</v>
+      </c>
+      <c r="B203" t="s">
+        <v>14</v>
+      </c>
+      <c r="C203" t="s">
+        <v>18</v>
+      </c>
+      <c r="D203" t="s">
+        <v>22</v>
+      </c>
+      <c r="E203">
+        <v>194.142</v>
+      </c>
+      <c r="F203">
+        <v>1116404.519801894</v>
+      </c>
+      <c r="G203">
+        <v>4841699.953397752</v>
+      </c>
+      <c r="H203">
+        <v>3986278.076113154</v>
+      </c>
+      <c r="I203">
+        <v>1116998.308205348</v>
+      </c>
+      <c r="J203">
+        <v>4841191.802269328</v>
+      </c>
+      <c r="K203">
+        <v>3984087.417608499</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
+      <c r="A204">
+        <v>56</v>
+      </c>
+      <c r="B204" t="s">
+        <v>14</v>
+      </c>
+      <c r="C204" t="s">
+        <v>18</v>
+      </c>
+      <c r="D204" t="s">
+        <v>22</v>
+      </c>
+      <c r="E204">
+        <v>195.142</v>
+      </c>
+      <c r="F204">
+        <v>1116403.938287246</v>
+      </c>
+      <c r="G204">
+        <v>4841716.466208236</v>
+      </c>
+      <c r="H204">
+        <v>3986286.512984968</v>
+      </c>
+      <c r="I204">
+        <v>1117080.571860076</v>
+      </c>
+      <c r="J204">
+        <v>4841143.150561561</v>
+      </c>
+      <c r="K204">
+        <v>3983754.969795412</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
+      <c r="A205">
+        <v>56</v>
+      </c>
+      <c r="B205" t="s">
+        <v>14</v>
+      </c>
+      <c r="C205" t="s">
+        <v>18</v>
+      </c>
+      <c r="D205" t="s">
+        <v>22</v>
+      </c>
+      <c r="E205">
+        <v>196.142</v>
+      </c>
+      <c r="F205">
+        <v>1116403.380495123</v>
+      </c>
+      <c r="G205">
+        <v>4841732.97901872</v>
+      </c>
+      <c r="H205">
+        <v>3986294.719063299</v>
+      </c>
+      <c r="I205">
+        <v>1117164.861181621</v>
+      </c>
+      <c r="J205">
+        <v>4841094.498853792</v>
+      </c>
+      <c r="K205">
+        <v>3983407.373319099</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
+      <c r="A206">
+        <v>56</v>
+      </c>
+      <c r="B206" t="s">
+        <v>14</v>
+      </c>
+      <c r="C206" t="s">
+        <v>18</v>
+      </c>
+      <c r="D206" t="s">
+        <v>22</v>
+      </c>
+      <c r="E206">
+        <v>197.142</v>
+      </c>
+      <c r="F206">
+        <v>1116402.844855633</v>
+      </c>
+      <c r="G206">
+        <v>4841749.491829205</v>
+      </c>
+      <c r="H206">
+        <v>3986302.706639526</v>
+      </c>
+      <c r="I206">
+        <v>1117251.226050164</v>
+      </c>
+      <c r="J206">
+        <v>4841045.847146024</v>
+      </c>
+      <c r="K206">
+        <v>3983044.62817956</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
+      <c r="A207">
+        <v>56</v>
+      </c>
+      <c r="B207" t="s">
+        <v>14</v>
+      </c>
+      <c r="C207" t="s">
+        <v>18</v>
+      </c>
+      <c r="D207" t="s">
+        <v>22</v>
+      </c>
+      <c r="E207">
+        <v>198.142</v>
+      </c>
+      <c r="F207">
+        <v>1116402.329940556</v>
+      </c>
+      <c r="G207">
+        <v>4841766.00463969</v>
+      </c>
+      <c r="H207">
+        <v>3986310.487048538</v>
+      </c>
+      <c r="I207">
+        <v>1117339.717574141</v>
+      </c>
+      <c r="J207">
+        <v>4840997.195438256</v>
+      </c>
+      <c r="K207">
+        <v>3982666.734376794</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
+      <c r="A208">
+        <v>56</v>
+      </c>
+      <c r="B208" t="s">
+        <v>14</v>
+      </c>
+      <c r="C208" t="s">
+        <v>18</v>
+      </c>
+      <c r="D208" t="s">
+        <v>22</v>
+      </c>
+      <c r="E208">
+        <v>199.142</v>
+      </c>
+      <c r="F208">
+        <v>1116401.834447318</v>
+      </c>
+      <c r="G208">
+        <v>4841782.517450173</v>
+      </c>
+      <c r="H208">
+        <v>3986318.070765475</v>
+      </c>
+      <c r="I208">
+        <v>1117430.388120485</v>
+      </c>
+      <c r="J208">
+        <v>4840948.543730488</v>
+      </c>
+      <c r="K208">
+        <v>3982273.691910801</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
+      <c r="A209">
+        <v>56</v>
+      </c>
+      <c r="B209" t="s">
+        <v>14</v>
+      </c>
+      <c r="C209" t="s">
+        <v>18</v>
+      </c>
+      <c r="D209" t="s">
+        <v>22</v>
+      </c>
+      <c r="E209">
+        <v>200.142</v>
+      </c>
+      <c r="F209">
+        <v>1116401.357185134</v>
+      </c>
+      <c r="G209">
+        <v>4841799.030260658</v>
+      </c>
+      <c r="H209">
+        <v>3986325.467490537</v>
+      </c>
+      <c r="I209">
+        <v>1117523.291345617</v>
+      </c>
+      <c r="J209">
+        <v>4840899.89202272</v>
+      </c>
+      <c r="K209">
+        <v>3981865.500781582</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
+      <c r="A210">
+        <v>56</v>
+      </c>
+      <c r="B210" t="s">
+        <v>14</v>
+      </c>
+      <c r="C210" t="s">
+        <v>18</v>
+      </c>
+      <c r="D210" t="s">
+        <v>22</v>
+      </c>
+      <c r="E210">
+        <v>201.142</v>
+      </c>
+      <c r="F210">
+        <v>1116400.897062967</v>
+      </c>
+      <c r="G210">
+        <v>4841815.543071142</v>
+      </c>
+      <c r="H210">
+        <v>3986332.686223582</v>
+      </c>
+      <c r="I210">
+        <v>1117618.482227199</v>
+      </c>
+      <c r="J210">
+        <v>4840851.240314951</v>
+      </c>
+      <c r="K210">
+        <v>3981442.160989136</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
+      <c r="A211">
+        <v>56</v>
+      </c>
+      <c r="B211" t="s">
+        <v>14</v>
+      </c>
+      <c r="C211" t="s">
+        <v>18</v>
+      </c>
+      <c r="D211" t="s">
+        <v>22</v>
+      </c>
+      <c r="E211">
+        <v>202.142</v>
+      </c>
+      <c r="F211">
+        <v>1116400.453079041</v>
+      </c>
+      <c r="G211">
+        <v>4841832.055881627</v>
+      </c>
+      <c r="H211">
+        <v>3986339.735329971</v>
+      </c>
+      <c r="I211">
+        <v>1117716.017096666</v>
+      </c>
+      <c r="J211">
+        <v>4840802.588607184</v>
+      </c>
+      <c r="K211">
+        <v>3981003.672533464</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
+      <c r="A212">
+        <v>56</v>
+      </c>
+      <c r="B212" t="s">
+        <v>14</v>
+      </c>
+      <c r="C212" t="s">
+        <v>18</v>
+      </c>
+      <c r="D212" t="s">
+        <v>22</v>
+      </c>
+      <c r="E212">
+        <v>203.142</v>
+      </c>
+      <c r="F212">
+        <v>1116400.024311664</v>
+      </c>
+      <c r="G212">
+        <v>4841848.568692111</v>
+      </c>
+      <c r="H212">
+        <v>3986346.622598839</v>
+      </c>
+      <c r="I212">
+        <v>1117815.953672563</v>
+      </c>
+      <c r="J212">
+        <v>4840753.936899416</v>
+      </c>
+      <c r="K212">
+        <v>3980550.035414566</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
+      <c r="A213">
+        <v>56</v>
+      </c>
+      <c r="B213" t="s">
+        <v>14</v>
+      </c>
+      <c r="C213" t="s">
+        <v>18</v>
+      </c>
+      <c r="D213" t="s">
+        <v>22</v>
+      </c>
+      <c r="E213">
+        <v>204.142</v>
+      </c>
+      <c r="F213">
+        <v>1116399.609911186</v>
+      </c>
+      <c r="G213">
+        <v>4841865.081502596</v>
+      </c>
+      <c r="H213">
+        <v>3986353.355294834</v>
+      </c>
+      <c r="I213">
+        <v>1117918.351094701</v>
+      </c>
+      <c r="J213">
+        <v>4840705.285191647</v>
+      </c>
+      <c r="K213">
+        <v>3980081.249632441</v>
       </c>
     </row>
   </sheetData>
